--- a/testCase/Test cases-APP2APP.xlsx
+++ b/testCase/Test cases-APP2APP.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh.dinh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE12E36-B605-49EB-806E-6A1642A8F57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="33740" windowHeight="21040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App2App" sheetId="6" r:id="rId1"/>
     <sheet name="Data" sheetId="4" r:id="rId2"/>
     <sheet name="source" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -285,14 +282,14 @@
     <t>App Momo: 
 - Thanh toán dịch vụ thất bại!
 - KHÔNG có noti
-- Redirect về app Đối tác
-- Hiển thị kết quả trả về: Thanh toán thành công</t>
+- Redirect về app Medigo
+- Hiển thị kết quả trả về: Thanh toán thất bại</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -303,46 +300,54 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -350,17 +355,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -575,16 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,7 +855,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,29 +1156,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FFD20-42A6-4426-91B9-99F46AF561B9}">
   <dimension ref="A1:AB927"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="58" customWidth="1"/>
-    <col min="4" max="5" width="39.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" style="26" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="35.8984375" style="58" customWidth="1"/>
+    <col min="4" max="5" width="39.59765625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27.09765625" style="26" customWidth="1"/>
+    <col min="8" max="9" width="12.09765625" style="26" customWidth="1"/>
     <col min="10" max="10" width="15" style="26" customWidth="1"/>
     <col min="11" max="11" width="26" style="26" customWidth="1"/>
-    <col min="12" max="28" width="9.1640625" style="26" customWidth="1"/>
-    <col min="29" max="16384" width="11.1640625" style="26"/>
+    <col min="12" max="28" width="9.09765625" style="26" customWidth="1"/>
+    <col min="29" max="16384" width="11.19921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="41"/>
@@ -1200,7 +1208,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1242,7 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1274,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1306,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1346,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="80"/>
       <c r="C6" s="44"/>
@@ -1368,7 +1376,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="46"/>
@@ -1398,7 +1406,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1454,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
@@ -1480,7 +1488,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1514,7 +1522,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1556,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1587,7 +1595,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1629,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>2</v>
       </c>
@@ -1661,7 +1669,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>3</v>
       </c>
@@ -1698,7 +1706,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>4</v>
       </c>
@@ -1736,7 +1744,7 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
     </row>
-    <row r="17" spans="1:28" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="78" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>5</v>
       </c>
@@ -1747,7 +1755,7 @@
       <c r="D17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="50" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="37"/>
@@ -1774,7 +1782,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>6</v>
       </c>
@@ -1785,7 +1793,7 @@
       <c r="D18" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="93" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="27"/>
@@ -1812,7 +1820,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>7</v>
       </c>
@@ -1850,7 +1858,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>8</v>
       </c>
@@ -1888,7 +1896,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>9</v>
       </c>
@@ -1926,7 +1934,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="5"/>
       <c r="C22" s="47"/>
@@ -1956,7 +1964,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="49"/>
@@ -1986,7 +1994,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="49"/>
@@ -2016,7 +2024,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="49"/>
@@ -2046,7 +2054,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="49"/>
@@ -2076,7 +2084,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="47"/>
@@ -2106,7 +2114,7 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
       <c r="C28" s="47"/>
@@ -2136,7 +2144,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="49"/>
@@ -2166,7 +2174,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="49"/>
@@ -2196,7 +2204,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="5"/>
       <c r="C31" s="49"/>
@@ -2226,7 +2234,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="52"/>
@@ -2256,7 +2264,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2296,7 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>46</v>
       </c>
@@ -2320,7 +2328,7 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>46</v>
       </c>
@@ -2352,7 +2360,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
@@ -2384,7 +2392,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
@@ -2416,7 +2424,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>46</v>
       </c>
@@ -2448,7 +2456,7 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>46</v>
       </c>
@@ -2480,7 +2488,7 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2520,7 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
@@ -2544,7 +2552,7 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -2576,7 +2584,7 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -2608,7 +2616,7 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2648,7 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -2672,7 +2680,7 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>46</v>
       </c>
@@ -2704,7 +2712,7 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
@@ -2736,7 +2744,7 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -2768,7 +2776,7 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +2808,7 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -2832,7 +2840,7 @@
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>46</v>
       </c>
@@ -2864,7 +2872,7 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>46</v>
       </c>
@@ -2896,7 +2904,7 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>46</v>
       </c>
@@ -2928,7 +2936,7 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>46</v>
       </c>
@@ -2960,7 +2968,7 @@
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +3000,7 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>46</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>46</v>
       </c>
@@ -3056,7 +3064,7 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>46</v>
       </c>
@@ -3088,7 +3096,7 @@
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>46</v>
       </c>
@@ -3120,7 +3128,7 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>46</v>
       </c>
@@ -3152,7 +3160,7 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>46</v>
       </c>
@@ -3184,7 +3192,7 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>46</v>
       </c>
@@ -3216,7 +3224,7 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -3248,7 +3256,7 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3288,7 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>46</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
@@ -3344,7 +3352,7 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>46</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>46</v>
       </c>
@@ -3408,7 +3416,7 @@
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>46</v>
       </c>
@@ -3440,7 +3448,7 @@
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3480,7 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>46</v>
       </c>
@@ -3504,7 +3512,7 @@
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>46</v>
       </c>
@@ -3536,7 +3544,7 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>46</v>
       </c>
@@ -3568,7 +3576,7 @@
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>46</v>
       </c>
@@ -3600,7 +3608,7 @@
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>46</v>
       </c>
@@ -3632,7 +3640,7 @@
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>46</v>
       </c>
@@ -3664,7 +3672,7 @@
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>46</v>
       </c>
@@ -3696,7 +3704,7 @@
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>46</v>
       </c>
@@ -3728,7 +3736,7 @@
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>46</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>46</v>
       </c>
@@ -3792,7 +3800,7 @@
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>46</v>
       </c>
@@ -3824,7 +3832,7 @@
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>46</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>46</v>
       </c>
@@ -3888,7 +3896,7 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>46</v>
       </c>
@@ -3920,7 +3928,7 @@
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>46</v>
       </c>
@@ -3952,7 +3960,7 @@
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>46</v>
       </c>
@@ -3984,7 +3992,7 @@
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>46</v>
       </c>
@@ -4016,7 +4024,7 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>46</v>
       </c>
@@ -4048,7 +4056,7 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>46</v>
       </c>
@@ -4080,7 +4088,7 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>46</v>
       </c>
@@ -4112,7 +4120,7 @@
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>46</v>
       </c>
@@ -4144,7 +4152,7 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>46</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>46</v>
       </c>
@@ -4208,7 +4216,7 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>46</v>
       </c>
@@ -4240,7 +4248,7 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>46</v>
       </c>
@@ -4272,7 +4280,7 @@
       <c r="AA95" s="6"/>
       <c r="AB95" s="6"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>46</v>
       </c>
@@ -4304,7 +4312,7 @@
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>46</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>46</v>
       </c>
@@ -4368,7 +4376,7 @@
       <c r="AA98" s="6"/>
       <c r="AB98" s="6"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>46</v>
       </c>
@@ -4400,7 +4408,7 @@
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>46</v>
       </c>
@@ -4432,7 +4440,7 @@
       <c r="AA100" s="6"/>
       <c r="AB100" s="6"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>46</v>
       </c>
@@ -4464,7 +4472,7 @@
       <c r="AA101" s="6"/>
       <c r="AB101" s="6"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>46</v>
       </c>
@@ -4496,7 +4504,7 @@
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>46</v>
       </c>
@@ -4528,7 +4536,7 @@
       <c r="AA103" s="6"/>
       <c r="AB103" s="6"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>46</v>
       </c>
@@ -4560,7 +4568,7 @@
       <c r="AA104" s="6"/>
       <c r="AB104" s="6"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>46</v>
       </c>
@@ -4592,7 +4600,7 @@
       <c r="AA105" s="6"/>
       <c r="AB105" s="6"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>46</v>
       </c>
@@ -4624,7 +4632,7 @@
       <c r="AA106" s="6"/>
       <c r="AB106" s="6"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>46</v>
       </c>
@@ -4656,7 +4664,7 @@
       <c r="AA107" s="6"/>
       <c r="AB107" s="6"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>46</v>
       </c>
@@ -4688,7 +4696,7 @@
       <c r="AA108" s="6"/>
       <c r="AB108" s="6"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>46</v>
       </c>
@@ -4720,7 +4728,7 @@
       <c r="AA109" s="6"/>
       <c r="AB109" s="6"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>46</v>
       </c>
@@ -4752,7 +4760,7 @@
       <c r="AA110" s="6"/>
       <c r="AB110" s="6"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>46</v>
       </c>
@@ -4784,7 +4792,7 @@
       <c r="AA111" s="6"/>
       <c r="AB111" s="6"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>46</v>
       </c>
@@ -4816,7 +4824,7 @@
       <c r="AA112" s="6"/>
       <c r="AB112" s="6"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>46</v>
       </c>
@@ -4848,7 +4856,7 @@
       <c r="AA113" s="6"/>
       <c r="AB113" s="6"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>46</v>
       </c>
@@ -4880,7 +4888,7 @@
       <c r="AA114" s="6"/>
       <c r="AB114" s="6"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>46</v>
       </c>
@@ -4912,7 +4920,7 @@
       <c r="AA115" s="6"/>
       <c r="AB115" s="6"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>46</v>
       </c>
@@ -4944,7 +4952,7 @@
       <c r="AA116" s="6"/>
       <c r="AB116" s="6"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>46</v>
       </c>
@@ -4976,7 +4984,7 @@
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>46</v>
       </c>
@@ -5008,7 +5016,7 @@
       <c r="AA118" s="6"/>
       <c r="AB118" s="6"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>46</v>
       </c>
@@ -5040,7 +5048,7 @@
       <c r="AA119" s="6"/>
       <c r="AB119" s="6"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>46</v>
       </c>
@@ -5072,7 +5080,7 @@
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>46</v>
       </c>
@@ -5104,7 +5112,7 @@
       <c r="AA121" s="6"/>
       <c r="AB121" s="6"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>46</v>
       </c>
@@ -5136,7 +5144,7 @@
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>46</v>
       </c>
@@ -5168,7 +5176,7 @@
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>46</v>
       </c>
@@ -5200,7 +5208,7 @@
       <c r="AA124" s="6"/>
       <c r="AB124" s="6"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>46</v>
       </c>
@@ -5232,7 +5240,7 @@
       <c r="AA125" s="6"/>
       <c r="AB125" s="6"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>46</v>
       </c>
@@ -5264,7 +5272,7 @@
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>46</v>
       </c>
@@ -5296,7 +5304,7 @@
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>46</v>
       </c>
@@ -5328,7 +5336,7 @@
       <c r="AA128" s="6"/>
       <c r="AB128" s="6"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>46</v>
       </c>
@@ -5360,7 +5368,7 @@
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>46</v>
       </c>
@@ -5392,7 +5400,7 @@
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>46</v>
       </c>
@@ -5424,7 +5432,7 @@
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>46</v>
       </c>
@@ -5456,7 +5464,7 @@
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>46</v>
       </c>
@@ -5488,7 +5496,7 @@
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>46</v>
       </c>
@@ -5520,7 +5528,7 @@
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>46</v>
       </c>
@@ -5552,7 +5560,7 @@
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>46</v>
       </c>
@@ -5584,7 +5592,7 @@
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>46</v>
       </c>
@@ -5616,7 +5624,7 @@
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>46</v>
       </c>
@@ -5648,7 +5656,7 @@
       <c r="AA138" s="6"/>
       <c r="AB138" s="6"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>46</v>
       </c>
@@ -5680,7 +5688,7 @@
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>46</v>
       </c>
@@ -5712,7 +5720,7 @@
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>46</v>
       </c>
@@ -5744,7 +5752,7 @@
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>46</v>
       </c>
@@ -5776,7 +5784,7 @@
       <c r="AA142" s="6"/>
       <c r="AB142" s="6"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>46</v>
       </c>
@@ -5808,7 +5816,7 @@
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>46</v>
       </c>
@@ -5840,7 +5848,7 @@
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>46</v>
       </c>
@@ -5872,7 +5880,7 @@
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>46</v>
       </c>
@@ -5904,7 +5912,7 @@
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>46</v>
       </c>
@@ -5936,7 +5944,7 @@
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>46</v>
       </c>
@@ -5968,7 +5976,7 @@
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>46</v>
       </c>
@@ -6000,7 +6008,7 @@
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>46</v>
       </c>
@@ -6032,7 +6040,7 @@
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>46</v>
       </c>
@@ -6064,7 +6072,7 @@
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>46</v>
       </c>
@@ -6096,7 +6104,7 @@
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>46</v>
       </c>
@@ -6128,7 +6136,7 @@
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>46</v>
       </c>
@@ -6160,7 +6168,7 @@
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>46</v>
       </c>
@@ -6192,7 +6200,7 @@
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>46</v>
       </c>
@@ -6224,7 +6232,7 @@
       <c r="AA156" s="6"/>
       <c r="AB156" s="6"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>46</v>
       </c>
@@ -6256,7 +6264,7 @@
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>46</v>
       </c>
@@ -6288,7 +6296,7 @@
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>46</v>
       </c>
@@ -6320,7 +6328,7 @@
       <c r="AA159" s="6"/>
       <c r="AB159" s="6"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>46</v>
       </c>
@@ -6352,7 +6360,7 @@
       <c r="AA160" s="6"/>
       <c r="AB160" s="6"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>46</v>
       </c>
@@ -6384,7 +6392,7 @@
       <c r="AA161" s="6"/>
       <c r="AB161" s="6"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>46</v>
       </c>
@@ -6416,7 +6424,7 @@
       <c r="AA162" s="6"/>
       <c r="AB162" s="6"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>46</v>
       </c>
@@ -6448,7 +6456,7 @@
       <c r="AA163" s="6"/>
       <c r="AB163" s="6"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>46</v>
       </c>
@@ -6480,7 +6488,7 @@
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>46</v>
       </c>
@@ -6512,7 +6520,7 @@
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>46</v>
       </c>
@@ -6544,7 +6552,7 @@
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>46</v>
       </c>
@@ -6576,7 +6584,7 @@
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>46</v>
       </c>
@@ -6608,7 +6616,7 @@
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>46</v>
       </c>
@@ -6640,7 +6648,7 @@
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>46</v>
       </c>
@@ -6672,7 +6680,7 @@
       <c r="AA170" s="6"/>
       <c r="AB170" s="6"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>46</v>
       </c>
@@ -6704,7 +6712,7 @@
       <c r="AA171" s="6"/>
       <c r="AB171" s="6"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>46</v>
       </c>
@@ -6736,7 +6744,7 @@
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>46</v>
       </c>
@@ -6768,7 +6776,7 @@
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +6808,7 @@
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>46</v>
       </c>
@@ -6832,7 +6840,7 @@
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>46</v>
       </c>
@@ -6864,7 +6872,7 @@
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>46</v>
       </c>
@@ -6896,7 +6904,7 @@
       <c r="AA177" s="6"/>
       <c r="AB177" s="6"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>46</v>
       </c>
@@ -6928,7 +6936,7 @@
       <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>46</v>
       </c>
@@ -6960,7 +6968,7 @@
       <c r="AA179" s="6"/>
       <c r="AB179" s="6"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>46</v>
       </c>
@@ -6992,7 +7000,7 @@
       <c r="AA180" s="6"/>
       <c r="AB180" s="6"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>46</v>
       </c>
@@ -7024,7 +7032,7 @@
       <c r="AA181" s="6"/>
       <c r="AB181" s="6"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>46</v>
       </c>
@@ -7056,7 +7064,7 @@
       <c r="AA182" s="6"/>
       <c r="AB182" s="6"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>46</v>
       </c>
@@ -7088,7 +7096,7 @@
       <c r="AA183" s="6"/>
       <c r="AB183" s="6"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>46</v>
       </c>
@@ -7120,7 +7128,7 @@
       <c r="AA184" s="6"/>
       <c r="AB184" s="6"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>46</v>
       </c>
@@ -7152,7 +7160,7 @@
       <c r="AA185" s="6"/>
       <c r="AB185" s="6"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>46</v>
       </c>
@@ -7184,7 +7192,7 @@
       <c r="AA186" s="6"/>
       <c r="AB186" s="6"/>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>46</v>
       </c>
@@ -7216,7 +7224,7 @@
       <c r="AA187" s="6"/>
       <c r="AB187" s="6"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>46</v>
       </c>
@@ -7248,7 +7256,7 @@
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>46</v>
       </c>
@@ -7280,7 +7288,7 @@
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
         <v>46</v>
       </c>
@@ -7312,7 +7320,7 @@
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>46</v>
       </c>
@@ -7344,7 +7352,7 @@
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>46</v>
       </c>
@@ -7376,7 +7384,7 @@
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>46</v>
       </c>
@@ -7408,7 +7416,7 @@
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>46</v>
       </c>
@@ -7440,7 +7448,7 @@
       <c r="AA194" s="6"/>
       <c r="AB194" s="6"/>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>46</v>
       </c>
@@ -7472,7 +7480,7 @@
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>46</v>
       </c>
@@ -7504,7 +7512,7 @@
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>46</v>
       </c>
@@ -7536,7 +7544,7 @@
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>46</v>
       </c>
@@ -7568,7 +7576,7 @@
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>46</v>
       </c>
@@ -7600,7 +7608,7 @@
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>46</v>
       </c>
@@ -7632,7 +7640,7 @@
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>46</v>
       </c>
@@ -7664,7 +7672,7 @@
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="53"/>
@@ -7694,7 +7702,7 @@
       <c r="AA202" s="14"/>
       <c r="AB202" s="14"/>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="53"/>
@@ -7724,7 +7732,7 @@
       <c r="AA203" s="14"/>
       <c r="AB203" s="14"/>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="53"/>
@@ -7754,7 +7762,7 @@
       <c r="AA204" s="14"/>
       <c r="AB204" s="14"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="53"/>
@@ -7784,7 +7792,7 @@
       <c r="AA205" s="14"/>
       <c r="AB205" s="14"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="53"/>
@@ -7814,7 +7822,7 @@
       <c r="AA206" s="14"/>
       <c r="AB206" s="14"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="53"/>
@@ -7844,7 +7852,7 @@
       <c r="AA207" s="14"/>
       <c r="AB207" s="14"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="53"/>
@@ -7874,7 +7882,7 @@
       <c r="AA208" s="14"/>
       <c r="AB208" s="14"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="53"/>
@@ -7904,7 +7912,7 @@
       <c r="AA209" s="14"/>
       <c r="AB209" s="14"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="53"/>
@@ -7934,7 +7942,7 @@
       <c r="AA210" s="14"/>
       <c r="AB210" s="14"/>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="53"/>
@@ -7964,7 +7972,7 @@
       <c r="AA211" s="14"/>
       <c r="AB211" s="14"/>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="53"/>
@@ -7994,7 +8002,7 @@
       <c r="AA212" s="14"/>
       <c r="AB212" s="14"/>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="53"/>
@@ -8024,7 +8032,7 @@
       <c r="AA213" s="14"/>
       <c r="AB213" s="14"/>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="53"/>
@@ -8054,7 +8062,7 @@
       <c r="AA214" s="14"/>
       <c r="AB214" s="14"/>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="53"/>
@@ -8084,7 +8092,7 @@
       <c r="AA215" s="14"/>
       <c r="AB215" s="14"/>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="53"/>
@@ -8114,7 +8122,7 @@
       <c r="AA216" s="14"/>
       <c r="AB216" s="14"/>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="53"/>
@@ -8144,7 +8152,7 @@
       <c r="AA217" s="14"/>
       <c r="AB217" s="14"/>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="53"/>
@@ -8174,7 +8182,7 @@
       <c r="AA218" s="14"/>
       <c r="AB218" s="14"/>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="53"/>
@@ -8204,7 +8212,7 @@
       <c r="AA219" s="14"/>
       <c r="AB219" s="14"/>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="53"/>
@@ -8234,7 +8242,7 @@
       <c r="AA220" s="14"/>
       <c r="AB220" s="14"/>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="53"/>
@@ -8264,7 +8272,7 @@
       <c r="AA221" s="14"/>
       <c r="AB221" s="14"/>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="53"/>
@@ -8294,7 +8302,7 @@
       <c r="AA222" s="14"/>
       <c r="AB222" s="14"/>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="53"/>
@@ -8324,7 +8332,7 @@
       <c r="AA223" s="14"/>
       <c r="AB223" s="14"/>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="53"/>
@@ -8354,7 +8362,7 @@
       <c r="AA224" s="14"/>
       <c r="AB224" s="14"/>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="53"/>
@@ -8384,7 +8392,7 @@
       <c r="AA225" s="14"/>
       <c r="AB225" s="14"/>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="53"/>
@@ -8414,7 +8422,7 @@
       <c r="AA226" s="14"/>
       <c r="AB226" s="14"/>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="53"/>
@@ -8444,7 +8452,7 @@
       <c r="AA227" s="14"/>
       <c r="AB227" s="14"/>
     </row>
-    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="53"/>
@@ -8474,7 +8482,7 @@
       <c r="AA228" s="14"/>
       <c r="AB228" s="14"/>
     </row>
-    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="53"/>
@@ -8504,7 +8512,7 @@
       <c r="AA229" s="14"/>
       <c r="AB229" s="14"/>
     </row>
-    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="53"/>
@@ -8534,7 +8542,7 @@
       <c r="AA230" s="14"/>
       <c r="AB230" s="14"/>
     </row>
-    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="53"/>
@@ -8564,7 +8572,7 @@
       <c r="AA231" s="14"/>
       <c r="AB231" s="14"/>
     </row>
-    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="53"/>
@@ -8594,7 +8602,7 @@
       <c r="AA232" s="14"/>
       <c r="AB232" s="14"/>
     </row>
-    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="53"/>
@@ -8624,7 +8632,7 @@
       <c r="AA233" s="14"/>
       <c r="AB233" s="14"/>
     </row>
-    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="53"/>
@@ -8654,7 +8662,7 @@
       <c r="AA234" s="14"/>
       <c r="AB234" s="14"/>
     </row>
-    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="53"/>
@@ -8684,7 +8692,7 @@
       <c r="AA235" s="14"/>
       <c r="AB235" s="14"/>
     </row>
-    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="53"/>
@@ -8714,7 +8722,7 @@
       <c r="AA236" s="14"/>
       <c r="AB236" s="14"/>
     </row>
-    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="53"/>
@@ -8744,7 +8752,7 @@
       <c r="AA237" s="14"/>
       <c r="AB237" s="14"/>
     </row>
-    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="53"/>
@@ -8774,7 +8782,7 @@
       <c r="AA238" s="14"/>
       <c r="AB238" s="14"/>
     </row>
-    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="53"/>
@@ -8804,7 +8812,7 @@
       <c r="AA239" s="14"/>
       <c r="AB239" s="14"/>
     </row>
-    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="53"/>
@@ -8834,7 +8842,7 @@
       <c r="AA240" s="14"/>
       <c r="AB240" s="14"/>
     </row>
-    <row r="241" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="53"/>
@@ -8864,7 +8872,7 @@
       <c r="AA241" s="14"/>
       <c r="AB241" s="14"/>
     </row>
-    <row r="242" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="53"/>
@@ -8894,7 +8902,7 @@
       <c r="AA242" s="14"/>
       <c r="AB242" s="14"/>
     </row>
-    <row r="243" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="53"/>
@@ -8924,7 +8932,7 @@
       <c r="AA243" s="14"/>
       <c r="AB243" s="14"/>
     </row>
-    <row r="244" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="53"/>
@@ -8954,7 +8962,7 @@
       <c r="AA244" s="14"/>
       <c r="AB244" s="14"/>
     </row>
-    <row r="245" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="53"/>
@@ -8984,7 +8992,7 @@
       <c r="AA245" s="14"/>
       <c r="AB245" s="14"/>
     </row>
-    <row r="246" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="53"/>
@@ -9014,7 +9022,7 @@
       <c r="AA246" s="14"/>
       <c r="AB246" s="14"/>
     </row>
-    <row r="247" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="53"/>
@@ -9044,7 +9052,7 @@
       <c r="AA247" s="14"/>
       <c r="AB247" s="14"/>
     </row>
-    <row r="248" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="53"/>
@@ -9074,7 +9082,7 @@
       <c r="AA248" s="14"/>
       <c r="AB248" s="14"/>
     </row>
-    <row r="249" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="53"/>
@@ -9104,7 +9112,7 @@
       <c r="AA249" s="14"/>
       <c r="AB249" s="14"/>
     </row>
-    <row r="250" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="53"/>
@@ -9134,7 +9142,7 @@
       <c r="AA250" s="14"/>
       <c r="AB250" s="14"/>
     </row>
-    <row r="251" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="53"/>
@@ -9164,7 +9172,7 @@
       <c r="AA251" s="14"/>
       <c r="AB251" s="14"/>
     </row>
-    <row r="252" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="53"/>
@@ -9194,7 +9202,7 @@
       <c r="AA252" s="14"/>
       <c r="AB252" s="14"/>
     </row>
-    <row r="253" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="53"/>
@@ -9224,7 +9232,7 @@
       <c r="AA253" s="14"/>
       <c r="AB253" s="14"/>
     </row>
-    <row r="254" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="53"/>
@@ -9254,7 +9262,7 @@
       <c r="AA254" s="14"/>
       <c r="AB254" s="14"/>
     </row>
-    <row r="255" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="53"/>
@@ -9284,7 +9292,7 @@
       <c r="AA255" s="14"/>
       <c r="AB255" s="14"/>
     </row>
-    <row r="256" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="53"/>
@@ -9314,7 +9322,7 @@
       <c r="AA256" s="14"/>
       <c r="AB256" s="14"/>
     </row>
-    <row r="257" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="53"/>
@@ -9344,7 +9352,7 @@
       <c r="AA257" s="14"/>
       <c r="AB257" s="14"/>
     </row>
-    <row r="258" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="53"/>
@@ -9374,7 +9382,7 @@
       <c r="AA258" s="14"/>
       <c r="AB258" s="14"/>
     </row>
-    <row r="259" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="53"/>
@@ -9404,7 +9412,7 @@
       <c r="AA259" s="14"/>
       <c r="AB259" s="14"/>
     </row>
-    <row r="260" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="53"/>
@@ -9434,7 +9442,7 @@
       <c r="AA260" s="14"/>
       <c r="AB260" s="14"/>
     </row>
-    <row r="261" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="53"/>
@@ -9464,7 +9472,7 @@
       <c r="AA261" s="14"/>
       <c r="AB261" s="14"/>
     </row>
-    <row r="262" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="53"/>
@@ -9494,7 +9502,7 @@
       <c r="AA262" s="14"/>
       <c r="AB262" s="14"/>
     </row>
-    <row r="263" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="53"/>
@@ -9524,7 +9532,7 @@
       <c r="AA263" s="14"/>
       <c r="AB263" s="14"/>
     </row>
-    <row r="264" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="53"/>
@@ -9554,7 +9562,7 @@
       <c r="AA264" s="14"/>
       <c r="AB264" s="14"/>
     </row>
-    <row r="265" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="53"/>
@@ -9584,7 +9592,7 @@
       <c r="AA265" s="14"/>
       <c r="AB265" s="14"/>
     </row>
-    <row r="266" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="53"/>
@@ -9614,7 +9622,7 @@
       <c r="AA266" s="14"/>
       <c r="AB266" s="14"/>
     </row>
-    <row r="267" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="53"/>
@@ -9644,7 +9652,7 @@
       <c r="AA267" s="14"/>
       <c r="AB267" s="14"/>
     </row>
-    <row r="268" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="53"/>
@@ -9674,7 +9682,7 @@
       <c r="AA268" s="14"/>
       <c r="AB268" s="14"/>
     </row>
-    <row r="269" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="53"/>
@@ -9704,7 +9712,7 @@
       <c r="AA269" s="14"/>
       <c r="AB269" s="14"/>
     </row>
-    <row r="270" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="53"/>
@@ -9734,7 +9742,7 @@
       <c r="AA270" s="14"/>
       <c r="AB270" s="14"/>
     </row>
-    <row r="271" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="53"/>
@@ -9764,7 +9772,7 @@
       <c r="AA271" s="14"/>
       <c r="AB271" s="14"/>
     </row>
-    <row r="272" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="53"/>
@@ -9794,7 +9802,7 @@
       <c r="AA272" s="14"/>
       <c r="AB272" s="14"/>
     </row>
-    <row r="273" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="53"/>
@@ -9824,7 +9832,7 @@
       <c r="AA273" s="14"/>
       <c r="AB273" s="14"/>
     </row>
-    <row r="274" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="53"/>
@@ -9854,7 +9862,7 @@
       <c r="AA274" s="14"/>
       <c r="AB274" s="14"/>
     </row>
-    <row r="275" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="53"/>
@@ -9884,7 +9892,7 @@
       <c r="AA275" s="14"/>
       <c r="AB275" s="14"/>
     </row>
-    <row r="276" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="53"/>
@@ -9914,7 +9922,7 @@
       <c r="AA276" s="14"/>
       <c r="AB276" s="14"/>
     </row>
-    <row r="277" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="53"/>
@@ -9944,7 +9952,7 @@
       <c r="AA277" s="14"/>
       <c r="AB277" s="14"/>
     </row>
-    <row r="278" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="53"/>
@@ -9974,7 +9982,7 @@
       <c r="AA278" s="14"/>
       <c r="AB278" s="14"/>
     </row>
-    <row r="279" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="53"/>
@@ -10004,7 +10012,7 @@
       <c r="AA279" s="14"/>
       <c r="AB279" s="14"/>
     </row>
-    <row r="280" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="53"/>
@@ -10034,7 +10042,7 @@
       <c r="AA280" s="14"/>
       <c r="AB280" s="14"/>
     </row>
-    <row r="281" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="53"/>
@@ -10064,7 +10072,7 @@
       <c r="AA281" s="14"/>
       <c r="AB281" s="14"/>
     </row>
-    <row r="282" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="53"/>
@@ -10094,7 +10102,7 @@
       <c r="AA282" s="14"/>
       <c r="AB282" s="14"/>
     </row>
-    <row r="283" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="53"/>
@@ -10124,7 +10132,7 @@
       <c r="AA283" s="14"/>
       <c r="AB283" s="14"/>
     </row>
-    <row r="284" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="53"/>
@@ -10154,7 +10162,7 @@
       <c r="AA284" s="14"/>
       <c r="AB284" s="14"/>
     </row>
-    <row r="285" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="53"/>
@@ -10184,7 +10192,7 @@
       <c r="AA285" s="14"/>
       <c r="AB285" s="14"/>
     </row>
-    <row r="286" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="53"/>
@@ -10214,7 +10222,7 @@
       <c r="AA286" s="14"/>
       <c r="AB286" s="14"/>
     </row>
-    <row r="287" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="53"/>
@@ -10244,7 +10252,7 @@
       <c r="AA287" s="14"/>
       <c r="AB287" s="14"/>
     </row>
-    <row r="288" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="53"/>
@@ -10274,7 +10282,7 @@
       <c r="AA288" s="14"/>
       <c r="AB288" s="14"/>
     </row>
-    <row r="289" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="53"/>
@@ -10304,7 +10312,7 @@
       <c r="AA289" s="14"/>
       <c r="AB289" s="14"/>
     </row>
-    <row r="290" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="53"/>
@@ -10334,7 +10342,7 @@
       <c r="AA290" s="14"/>
       <c r="AB290" s="14"/>
     </row>
-    <row r="291" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="53"/>
@@ -10364,7 +10372,7 @@
       <c r="AA291" s="14"/>
       <c r="AB291" s="14"/>
     </row>
-    <row r="292" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="53"/>
@@ -10394,7 +10402,7 @@
       <c r="AA292" s="14"/>
       <c r="AB292" s="14"/>
     </row>
-    <row r="293" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="53"/>
@@ -10424,7 +10432,7 @@
       <c r="AA293" s="14"/>
       <c r="AB293" s="14"/>
     </row>
-    <row r="294" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="53"/>
@@ -10454,7 +10462,7 @@
       <c r="AA294" s="14"/>
       <c r="AB294" s="14"/>
     </row>
-    <row r="295" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="53"/>
@@ -10484,7 +10492,7 @@
       <c r="AA295" s="14"/>
       <c r="AB295" s="14"/>
     </row>
-    <row r="296" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="53"/>
@@ -10514,7 +10522,7 @@
       <c r="AA296" s="14"/>
       <c r="AB296" s="14"/>
     </row>
-    <row r="297" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="53"/>
@@ -10544,7 +10552,7 @@
       <c r="AA297" s="14"/>
       <c r="AB297" s="14"/>
     </row>
-    <row r="298" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="53"/>
@@ -10574,7 +10582,7 @@
       <c r="AA298" s="14"/>
       <c r="AB298" s="14"/>
     </row>
-    <row r="299" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="53"/>
@@ -10604,7 +10612,7 @@
       <c r="AA299" s="14"/>
       <c r="AB299" s="14"/>
     </row>
-    <row r="300" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="53"/>
@@ -10634,7 +10642,7 @@
       <c r="AA300" s="14"/>
       <c r="AB300" s="14"/>
     </row>
-    <row r="301" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="53"/>
@@ -10664,7 +10672,7 @@
       <c r="AA301" s="14"/>
       <c r="AB301" s="14"/>
     </row>
-    <row r="302" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="53"/>
@@ -10694,7 +10702,7 @@
       <c r="AA302" s="14"/>
       <c r="AB302" s="14"/>
     </row>
-    <row r="303" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="53"/>
@@ -10724,7 +10732,7 @@
       <c r="AA303" s="14"/>
       <c r="AB303" s="14"/>
     </row>
-    <row r="304" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="53"/>
@@ -10754,7 +10762,7 @@
       <c r="AA304" s="14"/>
       <c r="AB304" s="14"/>
     </row>
-    <row r="305" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="53"/>
@@ -10784,7 +10792,7 @@
       <c r="AA305" s="14"/>
       <c r="AB305" s="14"/>
     </row>
-    <row r="306" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="53"/>
@@ -10814,7 +10822,7 @@
       <c r="AA306" s="14"/>
       <c r="AB306" s="14"/>
     </row>
-    <row r="307" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="53"/>
@@ -10844,7 +10852,7 @@
       <c r="AA307" s="14"/>
       <c r="AB307" s="14"/>
     </row>
-    <row r="308" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="53"/>
@@ -10874,7 +10882,7 @@
       <c r="AA308" s="14"/>
       <c r="AB308" s="14"/>
     </row>
-    <row r="309" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="53"/>
@@ -10904,7 +10912,7 @@
       <c r="AA309" s="14"/>
       <c r="AB309" s="14"/>
     </row>
-    <row r="310" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="53"/>
@@ -10934,7 +10942,7 @@
       <c r="AA310" s="14"/>
       <c r="AB310" s="14"/>
     </row>
-    <row r="311" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="53"/>
@@ -10964,7 +10972,7 @@
       <c r="AA311" s="14"/>
       <c r="AB311" s="14"/>
     </row>
-    <row r="312" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="53"/>
@@ -10994,7 +11002,7 @@
       <c r="AA312" s="14"/>
       <c r="AB312" s="14"/>
     </row>
-    <row r="313" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="53"/>
@@ -11024,7 +11032,7 @@
       <c r="AA313" s="14"/>
       <c r="AB313" s="14"/>
     </row>
-    <row r="314" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="53"/>
@@ -11054,7 +11062,7 @@
       <c r="AA314" s="14"/>
       <c r="AB314" s="14"/>
     </row>
-    <row r="315" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="53"/>
@@ -11084,7 +11092,7 @@
       <c r="AA315" s="14"/>
       <c r="AB315" s="14"/>
     </row>
-    <row r="316" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="53"/>
@@ -11114,7 +11122,7 @@
       <c r="AA316" s="14"/>
       <c r="AB316" s="14"/>
     </row>
-    <row r="317" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="53"/>
@@ -11144,7 +11152,7 @@
       <c r="AA317" s="14"/>
       <c r="AB317" s="14"/>
     </row>
-    <row r="318" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="53"/>
@@ -11174,7 +11182,7 @@
       <c r="AA318" s="14"/>
       <c r="AB318" s="14"/>
     </row>
-    <row r="319" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="53"/>
@@ -11204,7 +11212,7 @@
       <c r="AA319" s="14"/>
       <c r="AB319" s="14"/>
     </row>
-    <row r="320" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="53"/>
@@ -11234,7 +11242,7 @@
       <c r="AA320" s="14"/>
       <c r="AB320" s="14"/>
     </row>
-    <row r="321" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="53"/>
@@ -11264,7 +11272,7 @@
       <c r="AA321" s="14"/>
       <c r="AB321" s="14"/>
     </row>
-    <row r="322" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="53"/>
@@ -11294,7 +11302,7 @@
       <c r="AA322" s="14"/>
       <c r="AB322" s="14"/>
     </row>
-    <row r="323" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="53"/>
@@ -11324,7 +11332,7 @@
       <c r="AA323" s="14"/>
       <c r="AB323" s="14"/>
     </row>
-    <row r="324" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="53"/>
@@ -11354,7 +11362,7 @@
       <c r="AA324" s="14"/>
       <c r="AB324" s="14"/>
     </row>
-    <row r="325" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="53"/>
@@ -11384,7 +11392,7 @@
       <c r="AA325" s="14"/>
       <c r="AB325" s="14"/>
     </row>
-    <row r="326" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="53"/>
@@ -11414,7 +11422,7 @@
       <c r="AA326" s="14"/>
       <c r="AB326" s="14"/>
     </row>
-    <row r="327" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="53"/>
@@ -11444,7 +11452,7 @@
       <c r="AA327" s="14"/>
       <c r="AB327" s="14"/>
     </row>
-    <row r="328" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="53"/>
@@ -11474,7 +11482,7 @@
       <c r="AA328" s="14"/>
       <c r="AB328" s="14"/>
     </row>
-    <row r="329" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="53"/>
@@ -11504,7 +11512,7 @@
       <c r="AA329" s="14"/>
       <c r="AB329" s="14"/>
     </row>
-    <row r="330" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="53"/>
@@ -11534,7 +11542,7 @@
       <c r="AA330" s="14"/>
       <c r="AB330" s="14"/>
     </row>
-    <row r="331" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="53"/>
@@ -11564,7 +11572,7 @@
       <c r="AA331" s="14"/>
       <c r="AB331" s="14"/>
     </row>
-    <row r="332" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="53"/>
@@ -11594,7 +11602,7 @@
       <c r="AA332" s="14"/>
       <c r="AB332" s="14"/>
     </row>
-    <row r="333" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="53"/>
@@ -11624,7 +11632,7 @@
       <c r="AA333" s="14"/>
       <c r="AB333" s="14"/>
     </row>
-    <row r="334" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="53"/>
@@ -11654,7 +11662,7 @@
       <c r="AA334" s="14"/>
       <c r="AB334" s="14"/>
     </row>
-    <row r="335" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="53"/>
@@ -11684,7 +11692,7 @@
       <c r="AA335" s="14"/>
       <c r="AB335" s="14"/>
     </row>
-    <row r="336" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="53"/>
@@ -11714,7 +11722,7 @@
       <c r="AA336" s="14"/>
       <c r="AB336" s="14"/>
     </row>
-    <row r="337" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="53"/>
@@ -11744,7 +11752,7 @@
       <c r="AA337" s="14"/>
       <c r="AB337" s="14"/>
     </row>
-    <row r="338" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="53"/>
@@ -11774,7 +11782,7 @@
       <c r="AA338" s="14"/>
       <c r="AB338" s="14"/>
     </row>
-    <row r="339" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="53"/>
@@ -11804,7 +11812,7 @@
       <c r="AA339" s="14"/>
       <c r="AB339" s="14"/>
     </row>
-    <row r="340" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="53"/>
@@ -11834,7 +11842,7 @@
       <c r="AA340" s="14"/>
       <c r="AB340" s="14"/>
     </row>
-    <row r="341" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="53"/>
@@ -11864,7 +11872,7 @@
       <c r="AA341" s="14"/>
       <c r="AB341" s="14"/>
     </row>
-    <row r="342" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="53"/>
@@ -11894,7 +11902,7 @@
       <c r="AA342" s="14"/>
       <c r="AB342" s="14"/>
     </row>
-    <row r="343" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="53"/>
@@ -11924,7 +11932,7 @@
       <c r="AA343" s="14"/>
       <c r="AB343" s="14"/>
     </row>
-    <row r="344" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="53"/>
@@ -11954,7 +11962,7 @@
       <c r="AA344" s="14"/>
       <c r="AB344" s="14"/>
     </row>
-    <row r="345" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="53"/>
@@ -11984,7 +11992,7 @@
       <c r="AA345" s="14"/>
       <c r="AB345" s="14"/>
     </row>
-    <row r="346" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="53"/>
@@ -12014,7 +12022,7 @@
       <c r="AA346" s="14"/>
       <c r="AB346" s="14"/>
     </row>
-    <row r="347" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="53"/>
@@ -12044,7 +12052,7 @@
       <c r="AA347" s="14"/>
       <c r="AB347" s="14"/>
     </row>
-    <row r="348" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="53"/>
@@ -12074,7 +12082,7 @@
       <c r="AA348" s="14"/>
       <c r="AB348" s="14"/>
     </row>
-    <row r="349" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="53"/>
@@ -12104,7 +12112,7 @@
       <c r="AA349" s="14"/>
       <c r="AB349" s="14"/>
     </row>
-    <row r="350" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="53"/>
@@ -12134,7 +12142,7 @@
       <c r="AA350" s="14"/>
       <c r="AB350" s="14"/>
     </row>
-    <row r="351" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="53"/>
@@ -12164,7 +12172,7 @@
       <c r="AA351" s="14"/>
       <c r="AB351" s="14"/>
     </row>
-    <row r="352" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="53"/>
@@ -12194,7 +12202,7 @@
       <c r="AA352" s="14"/>
       <c r="AB352" s="14"/>
     </row>
-    <row r="353" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="53"/>
@@ -12224,7 +12232,7 @@
       <c r="AA353" s="14"/>
       <c r="AB353" s="14"/>
     </row>
-    <row r="354" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="53"/>
@@ -12254,7 +12262,7 @@
       <c r="AA354" s="14"/>
       <c r="AB354" s="14"/>
     </row>
-    <row r="355" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="53"/>
@@ -12284,7 +12292,7 @@
       <c r="AA355" s="14"/>
       <c r="AB355" s="14"/>
     </row>
-    <row r="356" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="53"/>
@@ -12314,7 +12322,7 @@
       <c r="AA356" s="14"/>
       <c r="AB356" s="14"/>
     </row>
-    <row r="357" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="53"/>
@@ -12344,7 +12352,7 @@
       <c r="AA357" s="14"/>
       <c r="AB357" s="14"/>
     </row>
-    <row r="358" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="53"/>
@@ -12374,7 +12382,7 @@
       <c r="AA358" s="14"/>
       <c r="AB358" s="14"/>
     </row>
-    <row r="359" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="53"/>
@@ -12404,7 +12412,7 @@
       <c r="AA359" s="14"/>
       <c r="AB359" s="14"/>
     </row>
-    <row r="360" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="53"/>
@@ -12434,7 +12442,7 @@
       <c r="AA360" s="14"/>
       <c r="AB360" s="14"/>
     </row>
-    <row r="361" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="53"/>
@@ -12464,7 +12472,7 @@
       <c r="AA361" s="14"/>
       <c r="AB361" s="14"/>
     </row>
-    <row r="362" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="53"/>
@@ -12494,7 +12502,7 @@
       <c r="AA362" s="14"/>
       <c r="AB362" s="14"/>
     </row>
-    <row r="363" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="53"/>
@@ -12524,7 +12532,7 @@
       <c r="AA363" s="14"/>
       <c r="AB363" s="14"/>
     </row>
-    <row r="364" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="53"/>
@@ -12554,7 +12562,7 @@
       <c r="AA364" s="14"/>
       <c r="AB364" s="14"/>
     </row>
-    <row r="365" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="53"/>
@@ -12584,7 +12592,7 @@
       <c r="AA365" s="14"/>
       <c r="AB365" s="14"/>
     </row>
-    <row r="366" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="53"/>
@@ -12614,7 +12622,7 @@
       <c r="AA366" s="14"/>
       <c r="AB366" s="14"/>
     </row>
-    <row r="367" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="53"/>
@@ -12644,7 +12652,7 @@
       <c r="AA367" s="14"/>
       <c r="AB367" s="14"/>
     </row>
-    <row r="368" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="53"/>
@@ -12674,7 +12682,7 @@
       <c r="AA368" s="14"/>
       <c r="AB368" s="14"/>
     </row>
-    <row r="369" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="53"/>
@@ -12704,7 +12712,7 @@
       <c r="AA369" s="14"/>
       <c r="AB369" s="14"/>
     </row>
-    <row r="370" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="53"/>
@@ -12734,7 +12742,7 @@
       <c r="AA370" s="14"/>
       <c r="AB370" s="14"/>
     </row>
-    <row r="371" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="53"/>
@@ -12764,7 +12772,7 @@
       <c r="AA371" s="14"/>
       <c r="AB371" s="14"/>
     </row>
-    <row r="372" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="53"/>
@@ -12794,7 +12802,7 @@
       <c r="AA372" s="14"/>
       <c r="AB372" s="14"/>
     </row>
-    <row r="373" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="53"/>
@@ -12824,7 +12832,7 @@
       <c r="AA373" s="14"/>
       <c r="AB373" s="14"/>
     </row>
-    <row r="374" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="53"/>
@@ -12854,7 +12862,7 @@
       <c r="AA374" s="14"/>
       <c r="AB374" s="14"/>
     </row>
-    <row r="375" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="53"/>
@@ -12884,7 +12892,7 @@
       <c r="AA375" s="14"/>
       <c r="AB375" s="14"/>
     </row>
-    <row r="376" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="53"/>
@@ -12914,7 +12922,7 @@
       <c r="AA376" s="14"/>
       <c r="AB376" s="14"/>
     </row>
-    <row r="377" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="53"/>
@@ -12944,7 +12952,7 @@
       <c r="AA377" s="14"/>
       <c r="AB377" s="14"/>
     </row>
-    <row r="378" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="53"/>
@@ -12974,7 +12982,7 @@
       <c r="AA378" s="14"/>
       <c r="AB378" s="14"/>
     </row>
-    <row r="379" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="53"/>
@@ -13004,7 +13012,7 @@
       <c r="AA379" s="14"/>
       <c r="AB379" s="14"/>
     </row>
-    <row r="380" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="53"/>
@@ -13034,7 +13042,7 @@
       <c r="AA380" s="14"/>
       <c r="AB380" s="14"/>
     </row>
-    <row r="381" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="53"/>
@@ -13064,7 +13072,7 @@
       <c r="AA381" s="14"/>
       <c r="AB381" s="14"/>
     </row>
-    <row r="382" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="53"/>
@@ -13094,7 +13102,7 @@
       <c r="AA382" s="14"/>
       <c r="AB382" s="14"/>
     </row>
-    <row r="383" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="53"/>
@@ -13124,7 +13132,7 @@
       <c r="AA383" s="14"/>
       <c r="AB383" s="14"/>
     </row>
-    <row r="384" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="53"/>
@@ -13154,7 +13162,7 @@
       <c r="AA384" s="14"/>
       <c r="AB384" s="14"/>
     </row>
-    <row r="385" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="53"/>
@@ -13184,7 +13192,7 @@
       <c r="AA385" s="14"/>
       <c r="AB385" s="14"/>
     </row>
-    <row r="386" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="53"/>
@@ -13214,7 +13222,7 @@
       <c r="AA386" s="14"/>
       <c r="AB386" s="14"/>
     </row>
-    <row r="387" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="53"/>
@@ -13244,7 +13252,7 @@
       <c r="AA387" s="14"/>
       <c r="AB387" s="14"/>
     </row>
-    <row r="388" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="53"/>
@@ -13274,7 +13282,7 @@
       <c r="AA388" s="14"/>
       <c r="AB388" s="14"/>
     </row>
-    <row r="389" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="53"/>
@@ -13304,7 +13312,7 @@
       <c r="AA389" s="14"/>
       <c r="AB389" s="14"/>
     </row>
-    <row r="390" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="53"/>
@@ -13334,7 +13342,7 @@
       <c r="AA390" s="14"/>
       <c r="AB390" s="14"/>
     </row>
-    <row r="391" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="53"/>
@@ -13364,7 +13372,7 @@
       <c r="AA391" s="14"/>
       <c r="AB391" s="14"/>
     </row>
-    <row r="392" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="53"/>
@@ -13394,7 +13402,7 @@
       <c r="AA392" s="14"/>
       <c r="AB392" s="14"/>
     </row>
-    <row r="393" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="53"/>
@@ -13424,7 +13432,7 @@
       <c r="AA393" s="14"/>
       <c r="AB393" s="14"/>
     </row>
-    <row r="394" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="53"/>
@@ -13454,7 +13462,7 @@
       <c r="AA394" s="14"/>
       <c r="AB394" s="14"/>
     </row>
-    <row r="395" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="53"/>
@@ -13484,7 +13492,7 @@
       <c r="AA395" s="14"/>
       <c r="AB395" s="14"/>
     </row>
-    <row r="396" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="53"/>
@@ -13514,7 +13522,7 @@
       <c r="AA396" s="14"/>
       <c r="AB396" s="14"/>
     </row>
-    <row r="397" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="53"/>
@@ -13544,7 +13552,7 @@
       <c r="AA397" s="14"/>
       <c r="AB397" s="14"/>
     </row>
-    <row r="398" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="53"/>
@@ -13574,7 +13582,7 @@
       <c r="AA398" s="14"/>
       <c r="AB398" s="14"/>
     </row>
-    <row r="399" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="53"/>
@@ -13604,7 +13612,7 @@
       <c r="AA399" s="14"/>
       <c r="AB399" s="14"/>
     </row>
-    <row r="400" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="53"/>
@@ -13634,7 +13642,7 @@
       <c r="AA400" s="14"/>
       <c r="AB400" s="14"/>
     </row>
-    <row r="401" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="53"/>
@@ -13664,7 +13672,7 @@
       <c r="AA401" s="14"/>
       <c r="AB401" s="14"/>
     </row>
-    <row r="402" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="15"/>
       <c r="B402" s="15"/>
       <c r="C402" s="54"/>
@@ -13694,7 +13702,7 @@
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
     </row>
-    <row r="403" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="15"/>
       <c r="B403" s="15"/>
       <c r="C403" s="54"/>
@@ -13724,7 +13732,7 @@
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
     </row>
-    <row r="404" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="54"/>
@@ -13754,7 +13762,7 @@
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
     </row>
-    <row r="405" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="15"/>
       <c r="B405" s="15"/>
       <c r="C405" s="54"/>
@@ -13784,7 +13792,7 @@
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
     </row>
-    <row r="406" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="15"/>
       <c r="B406" s="15"/>
       <c r="C406" s="54"/>
@@ -13814,7 +13822,7 @@
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
     </row>
-    <row r="407" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="15"/>
       <c r="B407" s="15"/>
       <c r="C407" s="54"/>
@@ -13844,7 +13852,7 @@
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
     </row>
-    <row r="408" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="15"/>
       <c r="B408" s="15"/>
       <c r="C408" s="54"/>
@@ -13874,7 +13882,7 @@
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
     </row>
-    <row r="409" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="15"/>
       <c r="B409" s="15"/>
       <c r="C409" s="54"/>
@@ -13904,7 +13912,7 @@
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
     </row>
-    <row r="410" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="15"/>
       <c r="B410" s="15"/>
       <c r="C410" s="54"/>
@@ -13934,7 +13942,7 @@
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
     </row>
-    <row r="411" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="15"/>
       <c r="B411" s="15"/>
       <c r="C411" s="54"/>
@@ -13964,7 +13972,7 @@
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
     </row>
-    <row r="412" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="15"/>
       <c r="B412" s="15"/>
       <c r="C412" s="54"/>
@@ -13994,7 +14002,7 @@
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
     </row>
-    <row r="413" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="54"/>
@@ -14024,7 +14032,7 @@
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
     </row>
-    <row r="414" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="15"/>
       <c r="B414" s="15"/>
       <c r="C414" s="54"/>
@@ -14054,7 +14062,7 @@
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
     </row>
-    <row r="415" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="15"/>
       <c r="B415" s="15"/>
       <c r="C415" s="54"/>
@@ -14084,7 +14092,7 @@
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
     </row>
-    <row r="416" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="54"/>
@@ -14114,7 +14122,7 @@
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
     </row>
-    <row r="417" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="15"/>
       <c r="B417" s="15"/>
       <c r="C417" s="54"/>
@@ -14144,7 +14152,7 @@
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
     </row>
-    <row r="418" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="54"/>
@@ -14174,7 +14182,7 @@
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
     </row>
-    <row r="419" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="15"/>
       <c r="B419" s="15"/>
       <c r="C419" s="54"/>
@@ -14204,7 +14212,7 @@
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
     </row>
-    <row r="420" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="15"/>
       <c r="B420" s="15"/>
       <c r="C420" s="54"/>
@@ -14234,7 +14242,7 @@
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
     </row>
-    <row r="421" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="15"/>
       <c r="B421" s="15"/>
       <c r="C421" s="54"/>
@@ -14264,7 +14272,7 @@
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
     </row>
-    <row r="422" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="15"/>
       <c r="B422" s="15"/>
       <c r="C422" s="54"/>
@@ -14294,7 +14302,7 @@
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
     </row>
-    <row r="423" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="15"/>
       <c r="B423" s="15"/>
       <c r="C423" s="54"/>
@@ -14324,7 +14332,7 @@
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
     </row>
-    <row r="424" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="15"/>
       <c r="B424" s="15"/>
       <c r="C424" s="54"/>
@@ -14354,7 +14362,7 @@
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
     </row>
-    <row r="425" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="15"/>
       <c r="B425" s="15"/>
       <c r="C425" s="54"/>
@@ -14384,7 +14392,7 @@
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
     </row>
-    <row r="426" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="15"/>
       <c r="B426" s="15"/>
       <c r="C426" s="54"/>
@@ -14414,7 +14422,7 @@
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
     </row>
-    <row r="427" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="54"/>
@@ -14444,7 +14452,7 @@
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
     </row>
-    <row r="428" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="15"/>
       <c r="B428" s="15"/>
       <c r="C428" s="54"/>
@@ -14474,7 +14482,7 @@
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
     </row>
-    <row r="429" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="15"/>
       <c r="B429" s="15"/>
       <c r="C429" s="54"/>
@@ -14504,7 +14512,7 @@
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
     </row>
-    <row r="430" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="15"/>
       <c r="B430" s="15"/>
       <c r="C430" s="54"/>
@@ -14534,7 +14542,7 @@
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
     </row>
-    <row r="431" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="15"/>
       <c r="B431" s="15"/>
       <c r="C431" s="54"/>
@@ -14564,7 +14572,7 @@
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
     </row>
-    <row r="432" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="15"/>
       <c r="B432" s="15"/>
       <c r="C432" s="54"/>
@@ -14594,7 +14602,7 @@
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
     </row>
-    <row r="433" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="15"/>
       <c r="B433" s="15"/>
       <c r="C433" s="54"/>
@@ -14624,7 +14632,7 @@
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
     </row>
-    <row r="434" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="15"/>
       <c r="B434" s="15"/>
       <c r="C434" s="54"/>
@@ -14654,7 +14662,7 @@
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
     </row>
-    <row r="435" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="15"/>
       <c r="B435" s="15"/>
       <c r="C435" s="54"/>
@@ -14684,7 +14692,7 @@
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
     </row>
-    <row r="436" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="54"/>
@@ -14714,7 +14722,7 @@
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
     </row>
-    <row r="437" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="15"/>
       <c r="B437" s="15"/>
       <c r="C437" s="54"/>
@@ -14744,7 +14752,7 @@
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
     </row>
-    <row r="438" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="54"/>
@@ -14774,7 +14782,7 @@
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
     </row>
-    <row r="439" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="15"/>
       <c r="B439" s="15"/>
       <c r="C439" s="54"/>
@@ -14804,7 +14812,7 @@
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
     </row>
-    <row r="440" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="15"/>
       <c r="B440" s="15"/>
       <c r="C440" s="54"/>
@@ -14834,7 +14842,7 @@
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
     </row>
-    <row r="441" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="15"/>
       <c r="B441" s="15"/>
       <c r="C441" s="54"/>
@@ -14864,7 +14872,7 @@
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
     </row>
-    <row r="442" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="15"/>
       <c r="B442" s="15"/>
       <c r="C442" s="54"/>
@@ -14894,7 +14902,7 @@
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
     </row>
-    <row r="443" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="15"/>
       <c r="B443" s="15"/>
       <c r="C443" s="54"/>
@@ -14924,7 +14932,7 @@
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
     </row>
-    <row r="444" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="15"/>
       <c r="B444" s="15"/>
       <c r="C444" s="54"/>
@@ -14954,7 +14962,7 @@
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
     </row>
-    <row r="445" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="15"/>
       <c r="B445" s="15"/>
       <c r="C445" s="54"/>
@@ -14984,7 +14992,7 @@
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
     </row>
-    <row r="446" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="15"/>
       <c r="B446" s="15"/>
       <c r="C446" s="54"/>
@@ -15014,7 +15022,7 @@
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
     </row>
-    <row r="447" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="54"/>
@@ -15044,7 +15052,7 @@
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
     </row>
-    <row r="448" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="15"/>
       <c r="B448" s="15"/>
       <c r="C448" s="54"/>
@@ -15074,7 +15082,7 @@
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
     </row>
-    <row r="449" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="54"/>
@@ -15104,7 +15112,7 @@
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
     </row>
-    <row r="450" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="15"/>
       <c r="B450" s="15"/>
       <c r="C450" s="54"/>
@@ -15134,7 +15142,7 @@
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
     </row>
-    <row r="451" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="15"/>
       <c r="B451" s="15"/>
       <c r="C451" s="54"/>
@@ -15164,7 +15172,7 @@
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
     </row>
-    <row r="452" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="15"/>
       <c r="B452" s="15"/>
       <c r="C452" s="54"/>
@@ -15194,7 +15202,7 @@
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
     </row>
-    <row r="453" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="15"/>
       <c r="B453" s="15"/>
       <c r="C453" s="54"/>
@@ -15224,7 +15232,7 @@
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
     </row>
-    <row r="454" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="15"/>
       <c r="B454" s="15"/>
       <c r="C454" s="54"/>
@@ -15254,7 +15262,7 @@
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
     </row>
-    <row r="455" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="15"/>
       <c r="B455" s="15"/>
       <c r="C455" s="54"/>
@@ -15284,7 +15292,7 @@
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
     </row>
-    <row r="456" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="54"/>
@@ -15314,7 +15322,7 @@
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
     </row>
-    <row r="457" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="15"/>
       <c r="B457" s="15"/>
       <c r="C457" s="54"/>
@@ -15344,7 +15352,7 @@
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
     </row>
-    <row r="458" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="15"/>
       <c r="B458" s="15"/>
       <c r="C458" s="54"/>
@@ -15374,7 +15382,7 @@
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
     </row>
-    <row r="459" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="15"/>
       <c r="B459" s="15"/>
       <c r="C459" s="54"/>
@@ -15404,7 +15412,7 @@
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
     </row>
-    <row r="460" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="54"/>
@@ -15434,7 +15442,7 @@
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
     </row>
-    <row r="461" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="15"/>
       <c r="B461" s="15"/>
       <c r="C461" s="54"/>
@@ -15464,7 +15472,7 @@
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
     </row>
-    <row r="462" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="15"/>
       <c r="B462" s="15"/>
       <c r="C462" s="54"/>
@@ -15494,7 +15502,7 @@
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
     </row>
-    <row r="463" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="15"/>
       <c r="B463" s="15"/>
       <c r="C463" s="54"/>
@@ -15524,7 +15532,7 @@
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
     </row>
-    <row r="464" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="15"/>
       <c r="B464" s="15"/>
       <c r="C464" s="54"/>
@@ -15554,7 +15562,7 @@
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
     </row>
-    <row r="465" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="15"/>
       <c r="B465" s="15"/>
       <c r="C465" s="54"/>
@@ -15584,7 +15592,7 @@
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
     </row>
-    <row r="466" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="15"/>
       <c r="B466" s="15"/>
       <c r="C466" s="54"/>
@@ -15614,7 +15622,7 @@
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
     </row>
-    <row r="467" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="15"/>
       <c r="B467" s="15"/>
       <c r="C467" s="54"/>
@@ -15644,7 +15652,7 @@
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
     </row>
-    <row r="468" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="15"/>
       <c r="B468" s="15"/>
       <c r="C468" s="54"/>
@@ -15674,7 +15682,7 @@
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
     </row>
-    <row r="469" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="15"/>
       <c r="B469" s="15"/>
       <c r="C469" s="54"/>
@@ -15704,7 +15712,7 @@
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
     </row>
-    <row r="470" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="15"/>
       <c r="B470" s="15"/>
       <c r="C470" s="54"/>
@@ -15734,7 +15742,7 @@
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
     </row>
-    <row r="471" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="54"/>
@@ -15764,7 +15772,7 @@
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
     </row>
-    <row r="472" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="15"/>
       <c r="B472" s="15"/>
       <c r="C472" s="54"/>
@@ -15794,7 +15802,7 @@
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
     </row>
-    <row r="473" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="15"/>
       <c r="B473" s="15"/>
       <c r="C473" s="54"/>
@@ -15824,7 +15832,7 @@
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
     </row>
-    <row r="474" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="15"/>
       <c r="B474" s="15"/>
       <c r="C474" s="54"/>
@@ -15854,7 +15862,7 @@
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
     </row>
-    <row r="475" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="15"/>
       <c r="B475" s="15"/>
       <c r="C475" s="54"/>
@@ -15884,7 +15892,7 @@
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
     </row>
-    <row r="476" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="15"/>
       <c r="B476" s="15"/>
       <c r="C476" s="54"/>
@@ -15914,7 +15922,7 @@
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
     </row>
-    <row r="477" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="15"/>
       <c r="B477" s="15"/>
       <c r="C477" s="54"/>
@@ -15944,7 +15952,7 @@
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
     </row>
-    <row r="478" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="15"/>
       <c r="B478" s="15"/>
       <c r="C478" s="54"/>
@@ -15974,7 +15982,7 @@
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
     </row>
-    <row r="479" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="15"/>
       <c r="B479" s="15"/>
       <c r="C479" s="54"/>
@@ -16004,7 +16012,7 @@
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
     </row>
-    <row r="480" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="15"/>
       <c r="B480" s="15"/>
       <c r="C480" s="54"/>
@@ -16034,7 +16042,7 @@
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
     </row>
-    <row r="481" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="15"/>
       <c r="B481" s="15"/>
       <c r="C481" s="54"/>
@@ -16064,7 +16072,7 @@
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
     </row>
-    <row r="482" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="54"/>
@@ -16094,7 +16102,7 @@
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
     </row>
-    <row r="483" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="15"/>
       <c r="B483" s="15"/>
       <c r="C483" s="54"/>
@@ -16124,7 +16132,7 @@
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
     </row>
-    <row r="484" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="15"/>
       <c r="B484" s="15"/>
       <c r="C484" s="54"/>
@@ -16154,7 +16162,7 @@
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
     </row>
-    <row r="485" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="15"/>
       <c r="B485" s="15"/>
       <c r="C485" s="54"/>
@@ -16184,7 +16192,7 @@
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
     </row>
-    <row r="486" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="15"/>
       <c r="B486" s="15"/>
       <c r="C486" s="54"/>
@@ -16214,7 +16222,7 @@
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
     </row>
-    <row r="487" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="15"/>
       <c r="B487" s="15"/>
       <c r="C487" s="54"/>
@@ -16244,7 +16252,7 @@
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
     </row>
-    <row r="488" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="15"/>
       <c r="B488" s="15"/>
       <c r="C488" s="54"/>
@@ -16274,7 +16282,7 @@
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
     </row>
-    <row r="489" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="15"/>
       <c r="B489" s="15"/>
       <c r="C489" s="54"/>
@@ -16304,7 +16312,7 @@
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
     </row>
-    <row r="490" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="15"/>
       <c r="B490" s="15"/>
       <c r="C490" s="54"/>
@@ -16334,7 +16342,7 @@
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
     </row>
-    <row r="491" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="54"/>
@@ -16364,7 +16372,7 @@
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
     </row>
-    <row r="492" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="15"/>
       <c r="B492" s="15"/>
       <c r="C492" s="54"/>
@@ -16394,7 +16402,7 @@
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
     </row>
-    <row r="493" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="15"/>
       <c r="B493" s="15"/>
       <c r="C493" s="54"/>
@@ -16424,7 +16432,7 @@
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
     </row>
-    <row r="494" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="54"/>
@@ -16454,7 +16462,7 @@
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
     </row>
-    <row r="495" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="54"/>
@@ -16484,7 +16492,7 @@
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
     </row>
-    <row r="496" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="15"/>
       <c r="B496" s="15"/>
       <c r="C496" s="54"/>
@@ -16514,7 +16522,7 @@
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
     </row>
-    <row r="497" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="15"/>
       <c r="B497" s="15"/>
       <c r="C497" s="54"/>
@@ -16544,7 +16552,7 @@
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
     </row>
-    <row r="498" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="15"/>
       <c r="B498" s="15"/>
       <c r="C498" s="54"/>
@@ -16574,7 +16582,7 @@
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
     </row>
-    <row r="499" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="15"/>
       <c r="B499" s="15"/>
       <c r="C499" s="54"/>
@@ -16604,7 +16612,7 @@
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
     </row>
-    <row r="500" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="15"/>
       <c r="B500" s="15"/>
       <c r="C500" s="54"/>
@@ -16634,7 +16642,7 @@
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
     </row>
-    <row r="501" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="15"/>
       <c r="B501" s="15"/>
       <c r="C501" s="54"/>
@@ -16664,7 +16672,7 @@
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
     </row>
-    <row r="502" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="15"/>
       <c r="B502" s="15"/>
       <c r="C502" s="54"/>
@@ -16694,7 +16702,7 @@
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
     </row>
-    <row r="503" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="15"/>
       <c r="B503" s="15"/>
       <c r="C503" s="54"/>
@@ -16724,7 +16732,7 @@
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
     </row>
-    <row r="504" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="15"/>
       <c r="B504" s="15"/>
       <c r="C504" s="54"/>
@@ -16754,7 +16762,7 @@
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
     </row>
-    <row r="505" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="54"/>
@@ -16784,7 +16792,7 @@
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
     </row>
-    <row r="506" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="15"/>
       <c r="B506" s="15"/>
       <c r="C506" s="54"/>
@@ -16814,7 +16822,7 @@
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
     </row>
-    <row r="507" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="15"/>
       <c r="B507" s="15"/>
       <c r="C507" s="54"/>
@@ -16844,7 +16852,7 @@
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
     </row>
-    <row r="508" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="15"/>
       <c r="B508" s="15"/>
       <c r="C508" s="54"/>
@@ -16874,7 +16882,7 @@
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
     </row>
-    <row r="509" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="15"/>
       <c r="B509" s="15"/>
       <c r="C509" s="54"/>
@@ -16904,7 +16912,7 @@
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
     </row>
-    <row r="510" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="15"/>
       <c r="B510" s="15"/>
       <c r="C510" s="54"/>
@@ -16934,7 +16942,7 @@
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
     </row>
-    <row r="511" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="15"/>
       <c r="B511" s="15"/>
       <c r="C511" s="54"/>
@@ -16964,7 +16972,7 @@
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
     </row>
-    <row r="512" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="15"/>
       <c r="B512" s="15"/>
       <c r="C512" s="54"/>
@@ -16994,7 +17002,7 @@
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
     </row>
-    <row r="513" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="15"/>
       <c r="B513" s="15"/>
       <c r="C513" s="54"/>
@@ -17024,7 +17032,7 @@
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
     </row>
-    <row r="514" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="15"/>
       <c r="B514" s="15"/>
       <c r="C514" s="54"/>
@@ -17054,7 +17062,7 @@
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
     </row>
-    <row r="515" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="15"/>
       <c r="B515" s="15"/>
       <c r="C515" s="54"/>
@@ -17084,7 +17092,7 @@
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
     </row>
-    <row r="516" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="54"/>
@@ -17114,7 +17122,7 @@
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
     </row>
-    <row r="517" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="15"/>
       <c r="B517" s="15"/>
       <c r="C517" s="54"/>
@@ -17144,7 +17152,7 @@
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
     </row>
-    <row r="518" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="15"/>
       <c r="B518" s="15"/>
       <c r="C518" s="54"/>
@@ -17174,7 +17182,7 @@
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
     </row>
-    <row r="519" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="15"/>
       <c r="B519" s="15"/>
       <c r="C519" s="54"/>
@@ -17204,7 +17212,7 @@
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
     </row>
-    <row r="520" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="15"/>
       <c r="B520" s="15"/>
       <c r="C520" s="54"/>
@@ -17234,7 +17242,7 @@
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
     </row>
-    <row r="521" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="15"/>
       <c r="B521" s="15"/>
       <c r="C521" s="54"/>
@@ -17264,7 +17272,7 @@
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
     </row>
-    <row r="522" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="15"/>
       <c r="B522" s="15"/>
       <c r="C522" s="54"/>
@@ -17294,7 +17302,7 @@
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
     </row>
-    <row r="523" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="15"/>
       <c r="B523" s="15"/>
       <c r="C523" s="54"/>
@@ -17324,7 +17332,7 @@
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
     </row>
-    <row r="524" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="15"/>
       <c r="B524" s="15"/>
       <c r="C524" s="54"/>
@@ -17354,7 +17362,7 @@
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
     </row>
-    <row r="525" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="15"/>
       <c r="B525" s="15"/>
       <c r="C525" s="54"/>
@@ -17384,7 +17392,7 @@
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
     </row>
-    <row r="526" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="15"/>
       <c r="B526" s="15"/>
       <c r="C526" s="54"/>
@@ -17414,7 +17422,7 @@
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
     </row>
-    <row r="527" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="15"/>
       <c r="B527" s="15"/>
       <c r="C527" s="54"/>
@@ -17444,7 +17452,7 @@
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
     </row>
-    <row r="528" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="54"/>
@@ -17474,7 +17482,7 @@
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
     </row>
-    <row r="529" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="15"/>
       <c r="B529" s="15"/>
       <c r="C529" s="54"/>
@@ -17504,7 +17512,7 @@
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
     </row>
-    <row r="530" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="15"/>
       <c r="B530" s="15"/>
       <c r="C530" s="54"/>
@@ -17534,7 +17542,7 @@
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
     </row>
-    <row r="531" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="15"/>
       <c r="B531" s="15"/>
       <c r="C531" s="54"/>
@@ -17564,7 +17572,7 @@
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
     </row>
-    <row r="532" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="15"/>
       <c r="B532" s="15"/>
       <c r="C532" s="54"/>
@@ -17594,7 +17602,7 @@
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
     </row>
-    <row r="533" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="15"/>
       <c r="B533" s="15"/>
       <c r="C533" s="54"/>
@@ -17624,7 +17632,7 @@
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
     </row>
-    <row r="534" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="54"/>
@@ -17654,7 +17662,7 @@
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
     </row>
-    <row r="535" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="15"/>
       <c r="B535" s="15"/>
       <c r="C535" s="54"/>
@@ -17684,7 +17692,7 @@
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
     </row>
-    <row r="536" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="15"/>
       <c r="B536" s="15"/>
       <c r="C536" s="54"/>
@@ -17714,7 +17722,7 @@
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
     </row>
-    <row r="537" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="15"/>
       <c r="B537" s="15"/>
       <c r="C537" s="54"/>
@@ -17744,7 +17752,7 @@
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
     </row>
-    <row r="538" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="15"/>
       <c r="B538" s="15"/>
       <c r="C538" s="54"/>
@@ -17774,7 +17782,7 @@
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
     </row>
-    <row r="539" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="15"/>
       <c r="B539" s="15"/>
       <c r="C539" s="54"/>
@@ -17804,7 +17812,7 @@
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
     </row>
-    <row r="540" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="15"/>
       <c r="B540" s="15"/>
       <c r="C540" s="54"/>
@@ -17834,7 +17842,7 @@
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
     </row>
-    <row r="541" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="15"/>
       <c r="B541" s="15"/>
       <c r="C541" s="54"/>
@@ -17864,7 +17872,7 @@
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
     </row>
-    <row r="542" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="15"/>
       <c r="B542" s="15"/>
       <c r="C542" s="54"/>
@@ -17894,7 +17902,7 @@
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
     </row>
-    <row r="543" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="15"/>
       <c r="B543" s="15"/>
       <c r="C543" s="54"/>
@@ -17924,7 +17932,7 @@
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
     </row>
-    <row r="544" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="15"/>
       <c r="B544" s="15"/>
       <c r="C544" s="54"/>
@@ -17954,7 +17962,7 @@
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
     </row>
-    <row r="545" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="15"/>
       <c r="B545" s="15"/>
       <c r="C545" s="54"/>
@@ -17984,7 +17992,7 @@
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
     </row>
-    <row r="546" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="15"/>
       <c r="B546" s="15"/>
       <c r="C546" s="54"/>
@@ -18014,7 +18022,7 @@
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
     </row>
-    <row r="547" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="15"/>
       <c r="B547" s="15"/>
       <c r="C547" s="54"/>
@@ -18044,7 +18052,7 @@
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
     </row>
-    <row r="548" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="15"/>
       <c r="B548" s="15"/>
       <c r="C548" s="54"/>
@@ -18074,7 +18082,7 @@
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
     </row>
-    <row r="549" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="15"/>
       <c r="B549" s="15"/>
       <c r="C549" s="54"/>
@@ -18104,7 +18112,7 @@
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
     </row>
-    <row r="550" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="15"/>
       <c r="B550" s="15"/>
       <c r="C550" s="54"/>
@@ -18134,7 +18142,7 @@
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
     </row>
-    <row r="551" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="15"/>
       <c r="B551" s="15"/>
       <c r="C551" s="54"/>
@@ -18164,7 +18172,7 @@
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
     </row>
-    <row r="552" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="15"/>
       <c r="B552" s="15"/>
       <c r="C552" s="54"/>
@@ -18194,7 +18202,7 @@
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
     </row>
-    <row r="553" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="15"/>
       <c r="B553" s="15"/>
       <c r="C553" s="54"/>
@@ -18224,7 +18232,7 @@
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
     </row>
-    <row r="554" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="15"/>
       <c r="B554" s="15"/>
       <c r="C554" s="54"/>
@@ -18254,7 +18262,7 @@
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
     </row>
-    <row r="555" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="15"/>
       <c r="B555" s="15"/>
       <c r="C555" s="54"/>
@@ -18284,7 +18292,7 @@
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
     </row>
-    <row r="556" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="15"/>
       <c r="B556" s="15"/>
       <c r="C556" s="54"/>
@@ -18314,7 +18322,7 @@
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
     </row>
-    <row r="557" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="15"/>
       <c r="B557" s="15"/>
       <c r="C557" s="54"/>
@@ -18344,7 +18352,7 @@
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
     </row>
-    <row r="558" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="54"/>
@@ -18374,7 +18382,7 @@
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
     </row>
-    <row r="559" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="15"/>
       <c r="B559" s="15"/>
       <c r="C559" s="54"/>
@@ -18404,7 +18412,7 @@
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
     </row>
-    <row r="560" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="15"/>
       <c r="B560" s="15"/>
       <c r="C560" s="54"/>
@@ -18434,7 +18442,7 @@
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
     </row>
-    <row r="561" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="15"/>
       <c r="B561" s="15"/>
       <c r="C561" s="54"/>
@@ -18464,7 +18472,7 @@
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
     </row>
-    <row r="562" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="15"/>
       <c r="B562" s="15"/>
       <c r="C562" s="54"/>
@@ -18494,7 +18502,7 @@
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
     </row>
-    <row r="563" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="15"/>
       <c r="B563" s="15"/>
       <c r="C563" s="54"/>
@@ -18524,7 +18532,7 @@
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
     </row>
-    <row r="564" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="15"/>
       <c r="B564" s="15"/>
       <c r="C564" s="54"/>
@@ -18554,7 +18562,7 @@
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
     </row>
-    <row r="565" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="15"/>
       <c r="B565" s="15"/>
       <c r="C565" s="54"/>
@@ -18584,7 +18592,7 @@
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
     </row>
-    <row r="566" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="15"/>
       <c r="B566" s="15"/>
       <c r="C566" s="54"/>
@@ -18614,7 +18622,7 @@
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
     </row>
-    <row r="567" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="15"/>
       <c r="B567" s="15"/>
       <c r="C567" s="54"/>
@@ -18644,7 +18652,7 @@
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
     </row>
-    <row r="568" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="15"/>
       <c r="B568" s="15"/>
       <c r="C568" s="54"/>
@@ -18674,7 +18682,7 @@
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
     </row>
-    <row r="569" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="15"/>
       <c r="B569" s="15"/>
       <c r="C569" s="54"/>
@@ -18704,7 +18712,7 @@
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
     </row>
-    <row r="570" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="15"/>
       <c r="B570" s="15"/>
       <c r="C570" s="54"/>
@@ -18734,7 +18742,7 @@
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
     </row>
-    <row r="571" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="15"/>
       <c r="B571" s="15"/>
       <c r="C571" s="54"/>
@@ -18764,7 +18772,7 @@
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
     </row>
-    <row r="572" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="15"/>
       <c r="B572" s="15"/>
       <c r="C572" s="54"/>
@@ -18794,7 +18802,7 @@
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
     </row>
-    <row r="573" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="15"/>
       <c r="B573" s="15"/>
       <c r="C573" s="54"/>
@@ -18824,7 +18832,7 @@
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
     </row>
-    <row r="574" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="15"/>
       <c r="B574" s="15"/>
       <c r="C574" s="54"/>
@@ -18854,7 +18862,7 @@
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
     </row>
-    <row r="575" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="15"/>
       <c r="B575" s="15"/>
       <c r="C575" s="54"/>
@@ -18884,7 +18892,7 @@
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
     </row>
-    <row r="576" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="15"/>
       <c r="B576" s="15"/>
       <c r="C576" s="54"/>
@@ -18914,7 +18922,7 @@
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
     </row>
-    <row r="577" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="15"/>
       <c r="B577" s="15"/>
       <c r="C577" s="54"/>
@@ -18944,7 +18952,7 @@
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
     </row>
-    <row r="578" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="15"/>
       <c r="B578" s="15"/>
       <c r="C578" s="54"/>
@@ -18974,7 +18982,7 @@
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
     </row>
-    <row r="579" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="15"/>
       <c r="B579" s="15"/>
       <c r="C579" s="54"/>
@@ -19004,7 +19012,7 @@
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
     </row>
-    <row r="580" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="15"/>
       <c r="B580" s="15"/>
       <c r="C580" s="54"/>
@@ -19034,7 +19042,7 @@
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
     </row>
-    <row r="581" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="15"/>
       <c r="B581" s="15"/>
       <c r="C581" s="54"/>
@@ -19064,7 +19072,7 @@
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
     </row>
-    <row r="582" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="54"/>
@@ -19094,7 +19102,7 @@
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
     </row>
-    <row r="583" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="15"/>
       <c r="B583" s="15"/>
       <c r="C583" s="54"/>
@@ -19124,7 +19132,7 @@
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
     </row>
-    <row r="584" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="15"/>
       <c r="B584" s="15"/>
       <c r="C584" s="54"/>
@@ -19154,7 +19162,7 @@
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
     </row>
-    <row r="585" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="15"/>
       <c r="B585" s="15"/>
       <c r="C585" s="54"/>
@@ -19184,7 +19192,7 @@
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
     </row>
-    <row r="586" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="15"/>
       <c r="B586" s="15"/>
       <c r="C586" s="54"/>
@@ -19214,7 +19222,7 @@
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
     </row>
-    <row r="587" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="15"/>
       <c r="B587" s="15"/>
       <c r="C587" s="54"/>
@@ -19244,7 +19252,7 @@
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
     </row>
-    <row r="588" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="15"/>
       <c r="B588" s="15"/>
       <c r="C588" s="54"/>
@@ -19274,7 +19282,7 @@
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
     </row>
-    <row r="589" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="15"/>
       <c r="B589" s="15"/>
       <c r="C589" s="54"/>
@@ -19304,7 +19312,7 @@
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
     </row>
-    <row r="590" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="15"/>
       <c r="B590" s="15"/>
       <c r="C590" s="54"/>
@@ -19334,7 +19342,7 @@
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
     </row>
-    <row r="591" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="15"/>
       <c r="B591" s="15"/>
       <c r="C591" s="54"/>
@@ -19364,7 +19372,7 @@
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
     </row>
-    <row r="592" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="15"/>
       <c r="B592" s="15"/>
       <c r="C592" s="54"/>
@@ -19394,7 +19402,7 @@
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
     </row>
-    <row r="593" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="15"/>
       <c r="B593" s="15"/>
       <c r="C593" s="54"/>
@@ -19424,7 +19432,7 @@
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
     </row>
-    <row r="594" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="15"/>
       <c r="B594" s="15"/>
       <c r="C594" s="54"/>
@@ -19454,7 +19462,7 @@
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
     </row>
-    <row r="595" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="15"/>
       <c r="B595" s="15"/>
       <c r="C595" s="54"/>
@@ -19484,7 +19492,7 @@
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
     </row>
-    <row r="596" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="15"/>
       <c r="B596" s="15"/>
       <c r="C596" s="54"/>
@@ -19514,7 +19522,7 @@
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
     </row>
-    <row r="597" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="15"/>
       <c r="B597" s="15"/>
       <c r="C597" s="54"/>
@@ -19544,7 +19552,7 @@
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
     </row>
-    <row r="598" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="15"/>
       <c r="B598" s="15"/>
       <c r="C598" s="54"/>
@@ -19574,7 +19582,7 @@
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
     </row>
-    <row r="599" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="15"/>
       <c r="B599" s="15"/>
       <c r="C599" s="54"/>
@@ -19604,7 +19612,7 @@
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
     </row>
-    <row r="600" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="15"/>
       <c r="B600" s="15"/>
       <c r="C600" s="54"/>
@@ -19634,7 +19642,7 @@
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
     </row>
-    <row r="601" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="15"/>
       <c r="B601" s="15"/>
       <c r="C601" s="54"/>
@@ -19664,7 +19672,7 @@
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
     </row>
-    <row r="602" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="15"/>
       <c r="B602" s="15"/>
       <c r="C602" s="54"/>
@@ -19694,7 +19702,7 @@
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
     </row>
-    <row r="603" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="15"/>
       <c r="B603" s="15"/>
       <c r="C603" s="54"/>
@@ -19724,7 +19732,7 @@
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
     </row>
-    <row r="604" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="15"/>
       <c r="B604" s="15"/>
       <c r="C604" s="54"/>
@@ -19754,7 +19762,7 @@
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
     </row>
-    <row r="605" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="15"/>
       <c r="B605" s="15"/>
       <c r="C605" s="54"/>
@@ -19784,7 +19792,7 @@
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
     </row>
-    <row r="606" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="54"/>
@@ -19814,7 +19822,7 @@
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
     </row>
-    <row r="607" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="15"/>
       <c r="B607" s="15"/>
       <c r="C607" s="54"/>
@@ -19844,7 +19852,7 @@
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
     </row>
-    <row r="608" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="15"/>
       <c r="B608" s="15"/>
       <c r="C608" s="54"/>
@@ -19874,7 +19882,7 @@
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
     </row>
-    <row r="609" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="15"/>
       <c r="B609" s="15"/>
       <c r="C609" s="54"/>
@@ -19904,7 +19912,7 @@
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
     </row>
-    <row r="610" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="15"/>
       <c r="B610" s="15"/>
       <c r="C610" s="54"/>
@@ -19934,7 +19942,7 @@
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
     </row>
-    <row r="611" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="15"/>
       <c r="B611" s="15"/>
       <c r="C611" s="54"/>
@@ -19964,7 +19972,7 @@
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
     </row>
-    <row r="612" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="15"/>
       <c r="B612" s="15"/>
       <c r="C612" s="54"/>
@@ -19994,7 +20002,7 @@
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
     </row>
-    <row r="613" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="15"/>
       <c r="B613" s="15"/>
       <c r="C613" s="54"/>
@@ -20024,7 +20032,7 @@
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
     </row>
-    <row r="614" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="15"/>
       <c r="B614" s="15"/>
       <c r="C614" s="54"/>
@@ -20054,7 +20062,7 @@
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
     </row>
-    <row r="615" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="15"/>
       <c r="B615" s="15"/>
       <c r="C615" s="54"/>
@@ -20084,7 +20092,7 @@
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
     </row>
-    <row r="616" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="15"/>
       <c r="B616" s="15"/>
       <c r="C616" s="54"/>
@@ -20114,7 +20122,7 @@
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
     </row>
-    <row r="617" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="15"/>
       <c r="B617" s="15"/>
       <c r="C617" s="54"/>
@@ -20144,7 +20152,7 @@
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
     </row>
-    <row r="618" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="15"/>
       <c r="B618" s="15"/>
       <c r="C618" s="54"/>
@@ -20174,7 +20182,7 @@
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
     </row>
-    <row r="619" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="15"/>
       <c r="B619" s="15"/>
       <c r="C619" s="54"/>
@@ -20204,7 +20212,7 @@
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
     </row>
-    <row r="620" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="15"/>
       <c r="B620" s="15"/>
       <c r="C620" s="54"/>
@@ -20234,7 +20242,7 @@
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
     </row>
-    <row r="621" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="15"/>
       <c r="B621" s="15"/>
       <c r="C621" s="54"/>
@@ -20264,7 +20272,7 @@
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
     </row>
-    <row r="622" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="15"/>
       <c r="B622" s="15"/>
       <c r="C622" s="54"/>
@@ -20294,7 +20302,7 @@
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
     </row>
-    <row r="623" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="15"/>
       <c r="B623" s="15"/>
       <c r="C623" s="54"/>
@@ -20324,7 +20332,7 @@
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
     </row>
-    <row r="624" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="15"/>
       <c r="B624" s="15"/>
       <c r="C624" s="54"/>
@@ -20354,7 +20362,7 @@
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
     </row>
-    <row r="625" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="15"/>
       <c r="B625" s="15"/>
       <c r="C625" s="54"/>
@@ -20384,7 +20392,7 @@
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
     </row>
-    <row r="626" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="15"/>
       <c r="B626" s="15"/>
       <c r="C626" s="54"/>
@@ -20414,7 +20422,7 @@
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
     </row>
-    <row r="627" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="15"/>
       <c r="B627" s="15"/>
       <c r="C627" s="54"/>
@@ -20444,7 +20452,7 @@
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
     </row>
-    <row r="628" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="15"/>
       <c r="B628" s="15"/>
       <c r="C628" s="54"/>
@@ -20474,7 +20482,7 @@
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
     </row>
-    <row r="629" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="15"/>
       <c r="B629" s="15"/>
       <c r="C629" s="54"/>
@@ -20504,7 +20512,7 @@
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
     </row>
-    <row r="630" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="54"/>
@@ -20534,7 +20542,7 @@
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
     </row>
-    <row r="631" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="15"/>
       <c r="B631" s="15"/>
       <c r="C631" s="54"/>
@@ -20564,7 +20572,7 @@
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
     </row>
-    <row r="632" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="15"/>
       <c r="B632" s="15"/>
       <c r="C632" s="54"/>
@@ -20594,7 +20602,7 @@
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
     </row>
-    <row r="633" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="15"/>
       <c r="B633" s="15"/>
       <c r="C633" s="54"/>
@@ -20624,7 +20632,7 @@
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
     </row>
-    <row r="634" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="15"/>
       <c r="B634" s="15"/>
       <c r="C634" s="54"/>
@@ -20654,7 +20662,7 @@
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
     </row>
-    <row r="635" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="15"/>
       <c r="B635" s="15"/>
       <c r="C635" s="54"/>
@@ -20684,7 +20692,7 @@
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
     </row>
-    <row r="636" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="15"/>
       <c r="B636" s="15"/>
       <c r="C636" s="54"/>
@@ -20714,7 +20722,7 @@
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
     </row>
-    <row r="637" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="15"/>
       <c r="B637" s="15"/>
       <c r="C637" s="54"/>
@@ -20744,7 +20752,7 @@
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
     </row>
-    <row r="638" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="15"/>
       <c r="B638" s="15"/>
       <c r="C638" s="54"/>
@@ -20774,7 +20782,7 @@
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
     </row>
-    <row r="639" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="15"/>
       <c r="B639" s="15"/>
       <c r="C639" s="54"/>
@@ -20804,7 +20812,7 @@
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
     </row>
-    <row r="640" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="15"/>
       <c r="B640" s="15"/>
       <c r="C640" s="54"/>
@@ -20834,7 +20842,7 @@
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
     </row>
-    <row r="641" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="15"/>
       <c r="B641" s="15"/>
       <c r="C641" s="54"/>
@@ -20864,7 +20872,7 @@
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
     </row>
-    <row r="642" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="15"/>
       <c r="B642" s="15"/>
       <c r="C642" s="54"/>
@@ -20894,7 +20902,7 @@
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
     </row>
-    <row r="643" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="15"/>
       <c r="B643" s="15"/>
       <c r="C643" s="54"/>
@@ -20924,7 +20932,7 @@
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
     </row>
-    <row r="644" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="15"/>
       <c r="B644" s="15"/>
       <c r="C644" s="54"/>
@@ -20954,7 +20962,7 @@
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
     </row>
-    <row r="645" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="15"/>
       <c r="B645" s="15"/>
       <c r="C645" s="54"/>
@@ -20984,7 +20992,7 @@
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
     </row>
-    <row r="646" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="15"/>
       <c r="B646" s="15"/>
       <c r="C646" s="54"/>
@@ -21014,7 +21022,7 @@
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
     </row>
-    <row r="647" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="15"/>
       <c r="B647" s="15"/>
       <c r="C647" s="54"/>
@@ -21044,7 +21052,7 @@
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
     </row>
-    <row r="648" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="15"/>
       <c r="B648" s="15"/>
       <c r="C648" s="54"/>
@@ -21074,7 +21082,7 @@
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
     </row>
-    <row r="649" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="15"/>
       <c r="B649" s="15"/>
       <c r="C649" s="54"/>
@@ -21104,7 +21112,7 @@
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
     </row>
-    <row r="650" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="15"/>
       <c r="B650" s="15"/>
       <c r="C650" s="54"/>
@@ -21134,7 +21142,7 @@
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
     </row>
-    <row r="651" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="15"/>
       <c r="B651" s="15"/>
       <c r="C651" s="54"/>
@@ -21164,7 +21172,7 @@
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
     </row>
-    <row r="652" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="15"/>
       <c r="B652" s="15"/>
       <c r="C652" s="54"/>
@@ -21194,7 +21202,7 @@
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
     </row>
-    <row r="653" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="15"/>
       <c r="B653" s="15"/>
       <c r="C653" s="54"/>
@@ -21224,7 +21232,7 @@
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
     </row>
-    <row r="654" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="54"/>
@@ -21254,7 +21262,7 @@
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
     </row>
-    <row r="655" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="15"/>
       <c r="B655" s="15"/>
       <c r="C655" s="54"/>
@@ -21284,7 +21292,7 @@
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
     </row>
-    <row r="656" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="15"/>
       <c r="B656" s="15"/>
       <c r="C656" s="54"/>
@@ -21314,7 +21322,7 @@
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
     </row>
-    <row r="657" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="15"/>
       <c r="B657" s="15"/>
       <c r="C657" s="54"/>
@@ -21344,7 +21352,7 @@
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
     </row>
-    <row r="658" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="15"/>
       <c r="B658" s="15"/>
       <c r="C658" s="54"/>
@@ -21374,7 +21382,7 @@
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
     </row>
-    <row r="659" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="15"/>
       <c r="B659" s="15"/>
       <c r="C659" s="54"/>
@@ -21404,7 +21412,7 @@
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
     </row>
-    <row r="660" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="15"/>
       <c r="B660" s="15"/>
       <c r="C660" s="54"/>
@@ -21434,7 +21442,7 @@
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
     </row>
-    <row r="661" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="15"/>
       <c r="B661" s="15"/>
       <c r="C661" s="54"/>
@@ -21464,7 +21472,7 @@
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
     </row>
-    <row r="662" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="15"/>
       <c r="B662" s="15"/>
       <c r="C662" s="54"/>
@@ -21494,7 +21502,7 @@
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
     </row>
-    <row r="663" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="15"/>
       <c r="B663" s="15"/>
       <c r="C663" s="54"/>
@@ -21524,7 +21532,7 @@
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
     </row>
-    <row r="664" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="15"/>
       <c r="B664" s="15"/>
       <c r="C664" s="54"/>
@@ -21554,7 +21562,7 @@
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
     </row>
-    <row r="665" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="15"/>
       <c r="B665" s="15"/>
       <c r="C665" s="54"/>
@@ -21584,7 +21592,7 @@
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
     </row>
-    <row r="666" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="15"/>
       <c r="B666" s="15"/>
       <c r="C666" s="54"/>
@@ -21614,7 +21622,7 @@
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
     </row>
-    <row r="667" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="15"/>
       <c r="B667" s="15"/>
       <c r="C667" s="54"/>
@@ -21644,7 +21652,7 @@
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
     </row>
-    <row r="668" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="15"/>
       <c r="B668" s="15"/>
       <c r="C668" s="54"/>
@@ -21674,7 +21682,7 @@
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
     </row>
-    <row r="669" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="15"/>
       <c r="B669" s="15"/>
       <c r="C669" s="54"/>
@@ -21704,7 +21712,7 @@
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
     </row>
-    <row r="670" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="15"/>
       <c r="B670" s="15"/>
       <c r="C670" s="54"/>
@@ -21734,7 +21742,7 @@
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
     </row>
-    <row r="671" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="15"/>
       <c r="B671" s="15"/>
       <c r="C671" s="54"/>
@@ -21764,7 +21772,7 @@
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
     </row>
-    <row r="672" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="15"/>
       <c r="B672" s="15"/>
       <c r="C672" s="54"/>
@@ -21794,7 +21802,7 @@
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
     </row>
-    <row r="673" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="15"/>
       <c r="B673" s="15"/>
       <c r="C673" s="54"/>
@@ -21824,7 +21832,7 @@
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
     </row>
-    <row r="674" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="15"/>
       <c r="B674" s="15"/>
       <c r="C674" s="54"/>
@@ -21854,7 +21862,7 @@
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
     </row>
-    <row r="675" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="15"/>
       <c r="B675" s="15"/>
       <c r="C675" s="54"/>
@@ -21884,7 +21892,7 @@
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
     </row>
-    <row r="676" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="15"/>
       <c r="B676" s="15"/>
       <c r="C676" s="54"/>
@@ -21914,7 +21922,7 @@
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
     </row>
-    <row r="677" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="15"/>
       <c r="B677" s="15"/>
       <c r="C677" s="54"/>
@@ -21944,7 +21952,7 @@
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
     </row>
-    <row r="678" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="15"/>
       <c r="B678" s="15"/>
       <c r="C678" s="54"/>
@@ -21974,7 +21982,7 @@
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
     </row>
-    <row r="679" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="15"/>
       <c r="B679" s="15"/>
       <c r="C679" s="54"/>
@@ -22004,7 +22012,7 @@
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
     </row>
-    <row r="680" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="54"/>
@@ -22034,7 +22042,7 @@
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
     </row>
-    <row r="681" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="15"/>
       <c r="B681" s="15"/>
       <c r="C681" s="54"/>
@@ -22064,7 +22072,7 @@
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
     </row>
-    <row r="682" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="15"/>
       <c r="B682" s="15"/>
       <c r="C682" s="54"/>
@@ -22094,7 +22102,7 @@
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
     </row>
-    <row r="683" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="15"/>
       <c r="B683" s="15"/>
       <c r="C683" s="54"/>
@@ -22124,7 +22132,7 @@
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
     </row>
-    <row r="684" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="15"/>
       <c r="B684" s="15"/>
       <c r="C684" s="54"/>
@@ -22154,7 +22162,7 @@
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
     </row>
-    <row r="685" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="15"/>
       <c r="B685" s="15"/>
       <c r="C685" s="54"/>
@@ -22184,7 +22192,7 @@
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
     </row>
-    <row r="686" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="15"/>
       <c r="B686" s="15"/>
       <c r="C686" s="54"/>
@@ -22214,7 +22222,7 @@
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
     </row>
-    <row r="687" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="15"/>
       <c r="B687" s="15"/>
       <c r="C687" s="54"/>
@@ -22244,7 +22252,7 @@
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
     </row>
-    <row r="688" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="15"/>
       <c r="B688" s="15"/>
       <c r="C688" s="54"/>
@@ -22274,7 +22282,7 @@
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
     </row>
-    <row r="689" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="15"/>
       <c r="B689" s="15"/>
       <c r="C689" s="54"/>
@@ -22304,7 +22312,7 @@
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
     </row>
-    <row r="690" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="15"/>
       <c r="B690" s="15"/>
       <c r="C690" s="54"/>
@@ -22334,7 +22342,7 @@
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
     </row>
-    <row r="691" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="15"/>
       <c r="B691" s="15"/>
       <c r="C691" s="54"/>
@@ -22364,7 +22372,7 @@
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
     </row>
-    <row r="692" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="15"/>
       <c r="B692" s="15"/>
       <c r="C692" s="54"/>
@@ -22394,7 +22402,7 @@
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
     </row>
-    <row r="693" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="15"/>
       <c r="B693" s="15"/>
       <c r="C693" s="54"/>
@@ -22424,7 +22432,7 @@
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
     </row>
-    <row r="694" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="15"/>
       <c r="B694" s="15"/>
       <c r="C694" s="54"/>
@@ -22454,7 +22462,7 @@
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
     </row>
-    <row r="695" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="15"/>
       <c r="B695" s="15"/>
       <c r="C695" s="54"/>
@@ -22484,7 +22492,7 @@
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
     </row>
-    <row r="696" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="15"/>
       <c r="B696" s="15"/>
       <c r="C696" s="54"/>
@@ -22514,7 +22522,7 @@
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
     </row>
-    <row r="697" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="15"/>
       <c r="B697" s="15"/>
       <c r="C697" s="54"/>
@@ -22544,7 +22552,7 @@
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
     </row>
-    <row r="698" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="15"/>
       <c r="B698" s="15"/>
       <c r="C698" s="54"/>
@@ -22574,7 +22582,7 @@
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
     </row>
-    <row r="699" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="15"/>
       <c r="B699" s="15"/>
       <c r="C699" s="54"/>
@@ -22604,7 +22612,7 @@
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
     </row>
-    <row r="700" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="15"/>
       <c r="B700" s="15"/>
       <c r="C700" s="54"/>
@@ -22634,7 +22642,7 @@
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
     </row>
-    <row r="701" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="15"/>
       <c r="B701" s="15"/>
       <c r="C701" s="54"/>
@@ -22664,7 +22672,7 @@
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
     </row>
-    <row r="702" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="15"/>
       <c r="B702" s="15"/>
       <c r="C702" s="54"/>
@@ -22694,7 +22702,7 @@
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
     </row>
-    <row r="703" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="15"/>
       <c r="B703" s="15"/>
       <c r="C703" s="54"/>
@@ -22724,7 +22732,7 @@
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
     </row>
-    <row r="704" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="54"/>
@@ -22754,7 +22762,7 @@
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
     </row>
-    <row r="705" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="15"/>
       <c r="B705" s="15"/>
       <c r="C705" s="54"/>
@@ -22784,7 +22792,7 @@
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
     </row>
-    <row r="706" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="15"/>
       <c r="B706" s="15"/>
       <c r="C706" s="54"/>
@@ -22814,7 +22822,7 @@
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
     </row>
-    <row r="707" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="15"/>
       <c r="B707" s="15"/>
       <c r="C707" s="54"/>
@@ -22844,7 +22852,7 @@
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
     </row>
-    <row r="708" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="15"/>
       <c r="B708" s="15"/>
       <c r="C708" s="54"/>
@@ -22874,7 +22882,7 @@
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
     </row>
-    <row r="709" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="15"/>
       <c r="B709" s="15"/>
       <c r="C709" s="54"/>
@@ -22904,7 +22912,7 @@
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
     </row>
-    <row r="710" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="15"/>
       <c r="B710" s="15"/>
       <c r="C710" s="54"/>
@@ -22934,7 +22942,7 @@
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
     </row>
-    <row r="711" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="15"/>
       <c r="B711" s="15"/>
       <c r="C711" s="54"/>
@@ -22964,7 +22972,7 @@
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
     </row>
-    <row r="712" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="15"/>
       <c r="B712" s="15"/>
       <c r="C712" s="54"/>
@@ -22994,7 +23002,7 @@
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
     </row>
-    <row r="713" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="15"/>
       <c r="B713" s="15"/>
       <c r="C713" s="54"/>
@@ -23024,7 +23032,7 @@
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
     </row>
-    <row r="714" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="15"/>
       <c r="B714" s="15"/>
       <c r="C714" s="54"/>
@@ -23054,7 +23062,7 @@
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
     </row>
-    <row r="715" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="15"/>
       <c r="B715" s="15"/>
       <c r="C715" s="54"/>
@@ -23084,7 +23092,7 @@
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
     </row>
-    <row r="716" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="15"/>
       <c r="B716" s="15"/>
       <c r="C716" s="54"/>
@@ -23114,7 +23122,7 @@
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
     </row>
-    <row r="717" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="15"/>
       <c r="B717" s="15"/>
       <c r="C717" s="54"/>
@@ -23144,7 +23152,7 @@
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
     </row>
-    <row r="718" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="15"/>
       <c r="B718" s="15"/>
       <c r="C718" s="54"/>
@@ -23174,7 +23182,7 @@
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
     </row>
-    <row r="719" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="15"/>
       <c r="B719" s="15"/>
       <c r="C719" s="54"/>
@@ -23204,7 +23212,7 @@
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
     </row>
-    <row r="720" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="15"/>
       <c r="B720" s="15"/>
       <c r="C720" s="54"/>
@@ -23234,7 +23242,7 @@
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
     </row>
-    <row r="721" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="15"/>
       <c r="B721" s="15"/>
       <c r="C721" s="54"/>
@@ -23264,7 +23272,7 @@
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
     </row>
-    <row r="722" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="15"/>
       <c r="B722" s="15"/>
       <c r="C722" s="54"/>
@@ -23294,7 +23302,7 @@
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
     </row>
-    <row r="723" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="15"/>
       <c r="B723" s="15"/>
       <c r="C723" s="54"/>
@@ -23324,7 +23332,7 @@
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
     </row>
-    <row r="724" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="15"/>
       <c r="B724" s="15"/>
       <c r="C724" s="54"/>
@@ -23354,7 +23362,7 @@
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
     </row>
-    <row r="725" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="15"/>
       <c r="B725" s="15"/>
       <c r="C725" s="54"/>
@@ -23384,7 +23392,7 @@
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
     </row>
-    <row r="726" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="15"/>
       <c r="B726" s="15"/>
       <c r="C726" s="54"/>
@@ -23414,7 +23422,7 @@
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
     </row>
-    <row r="727" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="15"/>
       <c r="B727" s="15"/>
       <c r="C727" s="54"/>
@@ -23444,7 +23452,7 @@
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
     </row>
-    <row r="728" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="15"/>
       <c r="B728" s="15"/>
       <c r="C728" s="54"/>
@@ -23474,7 +23482,7 @@
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
     </row>
-    <row r="729" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="15"/>
       <c r="B729" s="15"/>
       <c r="C729" s="54"/>
@@ -23504,7 +23512,7 @@
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
     </row>
-    <row r="730" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="15"/>
       <c r="B730" s="15"/>
       <c r="C730" s="54"/>
@@ -23534,7 +23542,7 @@
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
     </row>
-    <row r="731" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="15"/>
       <c r="B731" s="15"/>
       <c r="C731" s="54"/>
@@ -23564,7 +23572,7 @@
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
     </row>
-    <row r="732" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="15"/>
       <c r="B732" s="15"/>
       <c r="C732" s="54"/>
@@ -23594,7 +23602,7 @@
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
     </row>
-    <row r="733" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="15"/>
       <c r="B733" s="15"/>
       <c r="C733" s="54"/>
@@ -23624,7 +23632,7 @@
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
     </row>
-    <row r="734" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="15"/>
       <c r="B734" s="15"/>
       <c r="C734" s="54"/>
@@ -23654,7 +23662,7 @@
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
     </row>
-    <row r="735" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="15"/>
       <c r="B735" s="15"/>
       <c r="C735" s="54"/>
@@ -23684,7 +23692,7 @@
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
     </row>
-    <row r="736" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="15"/>
       <c r="B736" s="15"/>
       <c r="C736" s="54"/>
@@ -23714,7 +23722,7 @@
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
     </row>
-    <row r="737" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="15"/>
       <c r="B737" s="15"/>
       <c r="C737" s="54"/>
@@ -23744,7 +23752,7 @@
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
     </row>
-    <row r="738" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="15"/>
       <c r="B738" s="15"/>
       <c r="C738" s="54"/>
@@ -23774,7 +23782,7 @@
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
     </row>
-    <row r="739" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="15"/>
       <c r="B739" s="15"/>
       <c r="C739" s="54"/>
@@ -23804,7 +23812,7 @@
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
     </row>
-    <row r="740" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="15"/>
       <c r="B740" s="15"/>
       <c r="C740" s="54"/>
@@ -23834,7 +23842,7 @@
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
     </row>
-    <row r="741" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="15"/>
       <c r="B741" s="15"/>
       <c r="C741" s="54"/>
@@ -23864,7 +23872,7 @@
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
     </row>
-    <row r="742" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="15"/>
       <c r="B742" s="15"/>
       <c r="C742" s="54"/>
@@ -23894,7 +23902,7 @@
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
     </row>
-    <row r="743" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="15"/>
       <c r="B743" s="15"/>
       <c r="C743" s="54"/>
@@ -23924,7 +23932,7 @@
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
     </row>
-    <row r="744" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="15"/>
       <c r="B744" s="15"/>
       <c r="C744" s="54"/>
@@ -23954,7 +23962,7 @@
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
     </row>
-    <row r="745" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="15"/>
       <c r="B745" s="15"/>
       <c r="C745" s="54"/>
@@ -23984,7 +23992,7 @@
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
     </row>
-    <row r="746" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="15"/>
       <c r="B746" s="15"/>
       <c r="C746" s="54"/>
@@ -24014,7 +24022,7 @@
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
     </row>
-    <row r="747" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="15"/>
       <c r="B747" s="15"/>
       <c r="C747" s="54"/>
@@ -24044,7 +24052,7 @@
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
     </row>
-    <row r="748" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="15"/>
       <c r="B748" s="15"/>
       <c r="C748" s="54"/>
@@ -24074,7 +24082,7 @@
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
     </row>
-    <row r="749" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="15"/>
       <c r="B749" s="15"/>
       <c r="C749" s="54"/>
@@ -24104,7 +24112,7 @@
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
     </row>
-    <row r="750" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="15"/>
       <c r="B750" s="15"/>
       <c r="C750" s="54"/>
@@ -24134,7 +24142,7 @@
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
     </row>
-    <row r="751" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="15"/>
       <c r="B751" s="15"/>
       <c r="C751" s="54"/>
@@ -24164,7 +24172,7 @@
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
     </row>
-    <row r="752" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="15"/>
       <c r="B752" s="15"/>
       <c r="C752" s="54"/>
@@ -24194,7 +24202,7 @@
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
     </row>
-    <row r="753" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="15"/>
       <c r="B753" s="15"/>
       <c r="C753" s="54"/>
@@ -24224,7 +24232,7 @@
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
     </row>
-    <row r="754" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="15"/>
       <c r="B754" s="15"/>
       <c r="C754" s="54"/>
@@ -24254,7 +24262,7 @@
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
     </row>
-    <row r="755" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="15"/>
       <c r="B755" s="15"/>
       <c r="C755" s="54"/>
@@ -24284,7 +24292,7 @@
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
     </row>
-    <row r="756" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="15"/>
       <c r="B756" s="15"/>
       <c r="C756" s="54"/>
@@ -24314,7 +24322,7 @@
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
     </row>
-    <row r="757" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="15"/>
       <c r="B757" s="15"/>
       <c r="C757" s="54"/>
@@ -24344,7 +24352,7 @@
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
     </row>
-    <row r="758" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="15"/>
       <c r="B758" s="15"/>
       <c r="C758" s="54"/>
@@ -24374,7 +24382,7 @@
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
     </row>
-    <row r="759" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="15"/>
       <c r="B759" s="15"/>
       <c r="C759" s="54"/>
@@ -24404,7 +24412,7 @@
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
     </row>
-    <row r="760" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="15"/>
       <c r="B760" s="15"/>
       <c r="C760" s="54"/>
@@ -24434,7 +24442,7 @@
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
     </row>
-    <row r="761" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="15"/>
       <c r="B761" s="15"/>
       <c r="C761" s="54"/>
@@ -24464,7 +24472,7 @@
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
     </row>
-    <row r="762" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="15"/>
       <c r="B762" s="15"/>
       <c r="C762" s="54"/>
@@ -24494,7 +24502,7 @@
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
     </row>
-    <row r="763" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="15"/>
       <c r="B763" s="15"/>
       <c r="C763" s="54"/>
@@ -24524,7 +24532,7 @@
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
     </row>
-    <row r="764" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="15"/>
       <c r="B764" s="15"/>
       <c r="C764" s="54"/>
@@ -24554,7 +24562,7 @@
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
     </row>
-    <row r="765" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="15"/>
       <c r="B765" s="15"/>
       <c r="C765" s="54"/>
@@ -24584,7 +24592,7 @@
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
     </row>
-    <row r="766" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="15"/>
       <c r="B766" s="15"/>
       <c r="C766" s="54"/>
@@ -24614,7 +24622,7 @@
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
     </row>
-    <row r="767" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="15"/>
       <c r="B767" s="15"/>
       <c r="C767" s="54"/>
@@ -24644,7 +24652,7 @@
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
     </row>
-    <row r="768" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="15"/>
       <c r="B768" s="15"/>
       <c r="C768" s="54"/>
@@ -24674,7 +24682,7 @@
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
     </row>
-    <row r="769" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="15"/>
       <c r="B769" s="15"/>
       <c r="C769" s="54"/>
@@ -24704,7 +24712,7 @@
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
     </row>
-    <row r="770" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="15"/>
       <c r="B770" s="15"/>
       <c r="C770" s="54"/>
@@ -24734,7 +24742,7 @@
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
     </row>
-    <row r="771" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="15"/>
       <c r="B771" s="15"/>
       <c r="C771" s="54"/>
@@ -24764,7 +24772,7 @@
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
     </row>
-    <row r="772" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="15"/>
       <c r="B772" s="15"/>
       <c r="C772" s="54"/>
@@ -24794,7 +24802,7 @@
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
     </row>
-    <row r="773" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="15"/>
       <c r="B773" s="15"/>
       <c r="C773" s="54"/>
@@ -24824,7 +24832,7 @@
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
     </row>
-    <row r="774" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="15"/>
       <c r="B774" s="15"/>
       <c r="C774" s="54"/>
@@ -24854,7 +24862,7 @@
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
     </row>
-    <row r="775" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="15"/>
       <c r="B775" s="15"/>
       <c r="C775" s="54"/>
@@ -24884,7 +24892,7 @@
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
     </row>
-    <row r="776" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="15"/>
       <c r="B776" s="15"/>
       <c r="C776" s="54"/>
@@ -24914,7 +24922,7 @@
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
     </row>
-    <row r="777" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="15"/>
       <c r="B777" s="15"/>
       <c r="C777" s="54"/>
@@ -24944,7 +24952,7 @@
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
     </row>
-    <row r="778" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="15"/>
       <c r="B778" s="15"/>
       <c r="C778" s="54"/>
@@ -24974,7 +24982,7 @@
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
     </row>
-    <row r="779" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="15"/>
       <c r="B779" s="15"/>
       <c r="C779" s="54"/>
@@ -25004,7 +25012,7 @@
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
     </row>
-    <row r="780" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="15"/>
       <c r="B780" s="15"/>
       <c r="C780" s="54"/>
@@ -25034,7 +25042,7 @@
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
     </row>
-    <row r="781" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="15"/>
       <c r="B781" s="15"/>
       <c r="C781" s="54"/>
@@ -25064,7 +25072,7 @@
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
     </row>
-    <row r="782" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="15"/>
       <c r="B782" s="15"/>
       <c r="C782" s="54"/>
@@ -25094,7 +25102,7 @@
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
     </row>
-    <row r="783" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="15"/>
       <c r="B783" s="15"/>
       <c r="C783" s="54"/>
@@ -25124,7 +25132,7 @@
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
     </row>
-    <row r="784" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="15"/>
       <c r="B784" s="15"/>
       <c r="C784" s="54"/>
@@ -25154,7 +25162,7 @@
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
     </row>
-    <row r="785" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="15"/>
       <c r="B785" s="15"/>
       <c r="C785" s="54"/>
@@ -25184,7 +25192,7 @@
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
     </row>
-    <row r="786" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="15"/>
       <c r="B786" s="15"/>
       <c r="C786" s="54"/>
@@ -25214,7 +25222,7 @@
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
     </row>
-    <row r="787" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="15"/>
       <c r="B787" s="15"/>
       <c r="C787" s="54"/>
@@ -25244,7 +25252,7 @@
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
     </row>
-    <row r="788" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="15"/>
       <c r="B788" s="15"/>
       <c r="C788" s="54"/>
@@ -25274,7 +25282,7 @@
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
     </row>
-    <row r="789" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="15"/>
       <c r="B789" s="15"/>
       <c r="C789" s="54"/>
@@ -25304,7 +25312,7 @@
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
     </row>
-    <row r="790" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="15"/>
       <c r="B790" s="15"/>
       <c r="C790" s="54"/>
@@ -25334,7 +25342,7 @@
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
     </row>
-    <row r="791" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="15"/>
       <c r="B791" s="15"/>
       <c r="C791" s="54"/>
@@ -25364,7 +25372,7 @@
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
     </row>
-    <row r="792" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="15"/>
       <c r="B792" s="15"/>
       <c r="C792" s="54"/>
@@ -25394,7 +25402,7 @@
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
     </row>
-    <row r="793" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="15"/>
       <c r="B793" s="15"/>
       <c r="C793" s="54"/>
@@ -25424,7 +25432,7 @@
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
     </row>
-    <row r="794" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="15"/>
       <c r="B794" s="15"/>
       <c r="C794" s="54"/>
@@ -25454,7 +25462,7 @@
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
     </row>
-    <row r="795" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="15"/>
       <c r="B795" s="15"/>
       <c r="C795" s="54"/>
@@ -25484,7 +25492,7 @@
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
     </row>
-    <row r="796" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="15"/>
       <c r="B796" s="15"/>
       <c r="C796" s="54"/>
@@ -25514,7 +25522,7 @@
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
     </row>
-    <row r="797" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="15"/>
       <c r="B797" s="15"/>
       <c r="C797" s="54"/>
@@ -25544,7 +25552,7 @@
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
     </row>
-    <row r="798" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="15"/>
       <c r="B798" s="15"/>
       <c r="C798" s="54"/>
@@ -25574,7 +25582,7 @@
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
     </row>
-    <row r="799" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="15"/>
       <c r="B799" s="15"/>
       <c r="C799" s="54"/>
@@ -25604,7 +25612,7 @@
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
     </row>
-    <row r="800" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="15"/>
       <c r="B800" s="15"/>
       <c r="C800" s="54"/>
@@ -25634,7 +25642,7 @@
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
     </row>
-    <row r="801" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="15"/>
       <c r="B801" s="15"/>
       <c r="C801" s="54"/>
@@ -25664,7 +25672,7 @@
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
     </row>
-    <row r="802" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="15"/>
       <c r="B802" s="15"/>
       <c r="C802" s="54"/>
@@ -25694,7 +25702,7 @@
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
     </row>
-    <row r="803" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="15"/>
       <c r="B803" s="15"/>
       <c r="C803" s="54"/>
@@ -25724,7 +25732,7 @@
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
     </row>
-    <row r="804" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="15"/>
       <c r="B804" s="15"/>
       <c r="C804" s="54"/>
@@ -25754,7 +25762,7 @@
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
     </row>
-    <row r="805" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="15"/>
       <c r="B805" s="15"/>
       <c r="C805" s="54"/>
@@ -25784,7 +25792,7 @@
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
     </row>
-    <row r="806" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="15"/>
       <c r="B806" s="15"/>
       <c r="C806" s="54"/>
@@ -25814,7 +25822,7 @@
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
     </row>
-    <row r="807" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="15"/>
       <c r="B807" s="15"/>
       <c r="C807" s="54"/>
@@ -25844,7 +25852,7 @@
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
     </row>
-    <row r="808" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="15"/>
       <c r="B808" s="15"/>
       <c r="C808" s="54"/>
@@ -25874,7 +25882,7 @@
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
     </row>
-    <row r="809" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="15"/>
       <c r="B809" s="15"/>
       <c r="C809" s="54"/>
@@ -25904,7 +25912,7 @@
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
     </row>
-    <row r="810" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="15"/>
       <c r="B810" s="15"/>
       <c r="C810" s="54"/>
@@ -25934,7 +25942,7 @@
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
     </row>
-    <row r="811" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="15"/>
       <c r="B811" s="15"/>
       <c r="C811" s="54"/>
@@ -25964,7 +25972,7 @@
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
     </row>
-    <row r="812" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="15"/>
       <c r="B812" s="15"/>
       <c r="C812" s="54"/>
@@ -25994,7 +26002,7 @@
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
     </row>
-    <row r="813" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="15"/>
       <c r="B813" s="15"/>
       <c r="C813" s="54"/>
@@ -26024,7 +26032,7 @@
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
     </row>
-    <row r="814" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="15"/>
       <c r="B814" s="15"/>
       <c r="C814" s="54"/>
@@ -26054,7 +26062,7 @@
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
     </row>
-    <row r="815" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="15"/>
       <c r="B815" s="15"/>
       <c r="C815" s="54"/>
@@ -26084,7 +26092,7 @@
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
     </row>
-    <row r="816" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="15"/>
       <c r="B816" s="15"/>
       <c r="C816" s="54"/>
@@ -26114,7 +26122,7 @@
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
     </row>
-    <row r="817" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="15"/>
       <c r="B817" s="15"/>
       <c r="C817" s="54"/>
@@ -26144,7 +26152,7 @@
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
     </row>
-    <row r="818" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="15"/>
       <c r="B818" s="15"/>
       <c r="C818" s="54"/>
@@ -26174,7 +26182,7 @@
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
     </row>
-    <row r="819" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="15"/>
       <c r="B819" s="15"/>
       <c r="C819" s="54"/>
@@ -26204,7 +26212,7 @@
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
     </row>
-    <row r="820" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="15"/>
       <c r="B820" s="15"/>
       <c r="C820" s="54"/>
@@ -26234,7 +26242,7 @@
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
     </row>
-    <row r="821" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="15"/>
       <c r="B821" s="15"/>
       <c r="C821" s="54"/>
@@ -26264,7 +26272,7 @@
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
     </row>
-    <row r="822" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="15"/>
       <c r="B822" s="15"/>
       <c r="C822" s="54"/>
@@ -26294,7 +26302,7 @@
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
     </row>
-    <row r="823" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="15"/>
       <c r="B823" s="15"/>
       <c r="C823" s="54"/>
@@ -26324,7 +26332,7 @@
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
     </row>
-    <row r="824" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="15"/>
       <c r="B824" s="15"/>
       <c r="C824" s="54"/>
@@ -26354,7 +26362,7 @@
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
     </row>
-    <row r="825" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="15"/>
       <c r="B825" s="15"/>
       <c r="C825" s="54"/>
@@ -26384,7 +26392,7 @@
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
     </row>
-    <row r="826" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="15"/>
       <c r="B826" s="15"/>
       <c r="C826" s="54"/>
@@ -26414,7 +26422,7 @@
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
     </row>
-    <row r="827" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="15"/>
       <c r="B827" s="15"/>
       <c r="C827" s="54"/>
@@ -26444,7 +26452,7 @@
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
     </row>
-    <row r="828" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="15"/>
       <c r="B828" s="15"/>
       <c r="C828" s="54"/>
@@ -26474,7 +26482,7 @@
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
     </row>
-    <row r="829" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="15"/>
       <c r="B829" s="15"/>
       <c r="C829" s="54"/>
@@ -26504,7 +26512,7 @@
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
     </row>
-    <row r="830" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="15"/>
       <c r="B830" s="15"/>
       <c r="C830" s="54"/>
@@ -26534,7 +26542,7 @@
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
     </row>
-    <row r="831" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="15"/>
       <c r="B831" s="15"/>
       <c r="C831" s="54"/>
@@ -26564,7 +26572,7 @@
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
     </row>
-    <row r="832" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="15"/>
       <c r="B832" s="15"/>
       <c r="C832" s="54"/>
@@ -26594,7 +26602,7 @@
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
     </row>
-    <row r="833" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="15"/>
       <c r="B833" s="15"/>
       <c r="C833" s="54"/>
@@ -26624,7 +26632,7 @@
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
     </row>
-    <row r="834" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="15"/>
       <c r="B834" s="15"/>
       <c r="C834" s="54"/>
@@ -26654,7 +26662,7 @@
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
     </row>
-    <row r="835" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="15"/>
       <c r="B835" s="15"/>
       <c r="C835" s="54"/>
@@ -26684,7 +26692,7 @@
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
     </row>
-    <row r="836" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="15"/>
       <c r="B836" s="15"/>
       <c r="C836" s="54"/>
@@ -26714,7 +26722,7 @@
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
     </row>
-    <row r="837" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="15"/>
       <c r="B837" s="15"/>
       <c r="C837" s="54"/>
@@ -26744,7 +26752,7 @@
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
     </row>
-    <row r="838" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="15"/>
       <c r="B838" s="15"/>
       <c r="C838" s="54"/>
@@ -26774,7 +26782,7 @@
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
     </row>
-    <row r="839" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="15"/>
       <c r="B839" s="15"/>
       <c r="C839" s="54"/>
@@ -26804,7 +26812,7 @@
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
     </row>
-    <row r="840" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="15"/>
       <c r="B840" s="15"/>
       <c r="C840" s="54"/>
@@ -26834,7 +26842,7 @@
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
     </row>
-    <row r="841" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="15"/>
       <c r="B841" s="15"/>
       <c r="C841" s="54"/>
@@ -26864,7 +26872,7 @@
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
     </row>
-    <row r="842" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="15"/>
       <c r="B842" s="15"/>
       <c r="C842" s="54"/>
@@ -26894,7 +26902,7 @@
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
     </row>
-    <row r="843" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="15"/>
       <c r="B843" s="15"/>
       <c r="C843" s="54"/>
@@ -26924,7 +26932,7 @@
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
     </row>
-    <row r="844" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="15"/>
       <c r="B844" s="15"/>
       <c r="C844" s="54"/>
@@ -26954,7 +26962,7 @@
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
     </row>
-    <row r="845" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="15"/>
       <c r="B845" s="15"/>
       <c r="C845" s="54"/>
@@ -26984,7 +26992,7 @@
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
     </row>
-    <row r="846" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="15"/>
       <c r="B846" s="15"/>
       <c r="C846" s="54"/>
@@ -27014,7 +27022,7 @@
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
     </row>
-    <row r="847" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="15"/>
       <c r="B847" s="15"/>
       <c r="C847" s="54"/>
@@ -27044,7 +27052,7 @@
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
     </row>
-    <row r="848" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="15"/>
       <c r="B848" s="15"/>
       <c r="C848" s="54"/>
@@ -27074,7 +27082,7 @@
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
     </row>
-    <row r="849" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="15"/>
       <c r="B849" s="15"/>
       <c r="C849" s="54"/>
@@ -27104,7 +27112,7 @@
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
     </row>
-    <row r="850" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="15"/>
       <c r="B850" s="15"/>
       <c r="C850" s="54"/>
@@ -27134,7 +27142,7 @@
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
     </row>
-    <row r="851" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="15"/>
       <c r="B851" s="15"/>
       <c r="C851" s="54"/>
@@ -27164,7 +27172,7 @@
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
     </row>
-    <row r="852" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="15"/>
       <c r="B852" s="15"/>
       <c r="C852" s="54"/>
@@ -27194,7 +27202,7 @@
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
     </row>
-    <row r="853" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="15"/>
       <c r="B853" s="15"/>
       <c r="C853" s="54"/>
@@ -27224,7 +27232,7 @@
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
     </row>
-    <row r="854" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="15"/>
       <c r="B854" s="15"/>
       <c r="C854" s="54"/>
@@ -27254,7 +27262,7 @@
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
     </row>
-    <row r="855" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="15"/>
       <c r="B855" s="15"/>
       <c r="C855" s="54"/>
@@ -27284,7 +27292,7 @@
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
     </row>
-    <row r="856" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="15"/>
       <c r="B856" s="15"/>
       <c r="C856" s="54"/>
@@ -27314,7 +27322,7 @@
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
     </row>
-    <row r="857" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="15"/>
       <c r="B857" s="15"/>
       <c r="C857" s="54"/>
@@ -27344,7 +27352,7 @@
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
     </row>
-    <row r="858" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="15"/>
       <c r="B858" s="15"/>
       <c r="C858" s="54"/>
@@ -27374,7 +27382,7 @@
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
     </row>
-    <row r="859" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="15"/>
       <c r="B859" s="15"/>
       <c r="C859" s="54"/>
@@ -27404,7 +27412,7 @@
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
     </row>
-    <row r="860" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="15"/>
       <c r="B860" s="15"/>
       <c r="C860" s="54"/>
@@ -27434,7 +27442,7 @@
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
     </row>
-    <row r="861" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="15"/>
       <c r="B861" s="15"/>
       <c r="C861" s="54"/>
@@ -27464,7 +27472,7 @@
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
     </row>
-    <row r="862" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="15"/>
       <c r="B862" s="15"/>
       <c r="C862" s="54"/>
@@ -27494,7 +27502,7 @@
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
     </row>
-    <row r="863" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="15"/>
       <c r="B863" s="15"/>
       <c r="C863" s="54"/>
@@ -27524,7 +27532,7 @@
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
     </row>
-    <row r="864" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="15"/>
       <c r="B864" s="15"/>
       <c r="C864" s="54"/>
@@ -27554,7 +27562,7 @@
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
     </row>
-    <row r="865" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="15"/>
       <c r="B865" s="15"/>
       <c r="C865" s="54"/>
@@ -27584,7 +27592,7 @@
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
     </row>
-    <row r="866" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="15"/>
       <c r="B866" s="15"/>
       <c r="C866" s="54"/>
@@ -27614,7 +27622,7 @@
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
     </row>
-    <row r="867" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="15"/>
       <c r="B867" s="15"/>
       <c r="C867" s="54"/>
@@ -27644,7 +27652,7 @@
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
     </row>
-    <row r="868" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="15"/>
       <c r="B868" s="15"/>
       <c r="C868" s="54"/>
@@ -27674,7 +27682,7 @@
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
     </row>
-    <row r="869" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="15"/>
       <c r="B869" s="15"/>
       <c r="C869" s="54"/>
@@ -27704,7 +27712,7 @@
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
     </row>
-    <row r="870" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="15"/>
       <c r="B870" s="15"/>
       <c r="C870" s="54"/>
@@ -27734,7 +27742,7 @@
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
     </row>
-    <row r="871" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="15"/>
       <c r="B871" s="15"/>
       <c r="C871" s="54"/>
@@ -27764,7 +27772,7 @@
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
     </row>
-    <row r="872" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="15"/>
       <c r="B872" s="15"/>
       <c r="C872" s="54"/>
@@ -27794,7 +27802,7 @@
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
     </row>
-    <row r="873" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="15"/>
       <c r="B873" s="15"/>
       <c r="C873" s="54"/>
@@ -27824,7 +27832,7 @@
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
     </row>
-    <row r="874" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="15"/>
       <c r="B874" s="15"/>
       <c r="C874" s="54"/>
@@ -27854,7 +27862,7 @@
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
     </row>
-    <row r="875" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="15"/>
       <c r="B875" s="15"/>
       <c r="C875" s="54"/>
@@ -27884,7 +27892,7 @@
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
     </row>
-    <row r="876" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="15"/>
       <c r="B876" s="15"/>
       <c r="C876" s="54"/>
@@ -27914,7 +27922,7 @@
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
     </row>
-    <row r="877" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="15"/>
       <c r="B877" s="15"/>
       <c r="C877" s="54"/>
@@ -27944,7 +27952,7 @@
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
     </row>
-    <row r="878" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="15"/>
       <c r="B878" s="15"/>
       <c r="C878" s="54"/>
@@ -27974,7 +27982,7 @@
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
     </row>
-    <row r="879" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="15"/>
       <c r="B879" s="15"/>
       <c r="C879" s="54"/>
@@ -28004,7 +28012,7 @@
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
     </row>
-    <row r="880" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="15"/>
       <c r="B880" s="15"/>
       <c r="C880" s="54"/>
@@ -28034,7 +28042,7 @@
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
     </row>
-    <row r="881" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="15"/>
       <c r="B881" s="15"/>
       <c r="C881" s="54"/>
@@ -28064,7 +28072,7 @@
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
     </row>
-    <row r="882" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="15"/>
       <c r="B882" s="15"/>
       <c r="C882" s="54"/>
@@ -28094,7 +28102,7 @@
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
     </row>
-    <row r="883" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="15"/>
       <c r="B883" s="15"/>
       <c r="C883" s="54"/>
@@ -28124,7 +28132,7 @@
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
     </row>
-    <row r="884" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="15"/>
       <c r="B884" s="15"/>
       <c r="C884" s="54"/>
@@ -28154,7 +28162,7 @@
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
     </row>
-    <row r="885" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="15"/>
       <c r="B885" s="15"/>
       <c r="C885" s="54"/>
@@ -28184,7 +28192,7 @@
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
     </row>
-    <row r="886" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="15"/>
       <c r="B886" s="15"/>
       <c r="C886" s="54"/>
@@ -28214,7 +28222,7 @@
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
     </row>
-    <row r="887" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="15"/>
       <c r="B887" s="15"/>
       <c r="C887" s="54"/>
@@ -28244,7 +28252,7 @@
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
     </row>
-    <row r="888" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="15"/>
       <c r="B888" s="15"/>
       <c r="C888" s="54"/>
@@ -28274,7 +28282,7 @@
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
     </row>
-    <row r="889" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="15"/>
       <c r="B889" s="15"/>
       <c r="C889" s="54"/>
@@ -28304,7 +28312,7 @@
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
     </row>
-    <row r="890" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="15"/>
       <c r="B890" s="15"/>
       <c r="C890" s="54"/>
@@ -28334,7 +28342,7 @@
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
     </row>
-    <row r="891" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="15"/>
       <c r="B891" s="15"/>
       <c r="C891" s="54"/>
@@ -28364,7 +28372,7 @@
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
     </row>
-    <row r="892" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="15"/>
       <c r="B892" s="15"/>
       <c r="C892" s="54"/>
@@ -28394,7 +28402,7 @@
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
     </row>
-    <row r="893" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="15"/>
       <c r="B893" s="15"/>
       <c r="C893" s="54"/>
@@ -28424,7 +28432,7 @@
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
     </row>
-    <row r="894" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="15"/>
       <c r="B894" s="15"/>
       <c r="C894" s="54"/>
@@ -28454,7 +28462,7 @@
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
     </row>
-    <row r="895" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="15"/>
       <c r="B895" s="15"/>
       <c r="C895" s="54"/>
@@ -28484,7 +28492,7 @@
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
     </row>
-    <row r="896" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="15"/>
       <c r="B896" s="15"/>
       <c r="C896" s="54"/>
@@ -28514,7 +28522,7 @@
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
     </row>
-    <row r="897" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="15"/>
       <c r="B897" s="15"/>
       <c r="C897" s="54"/>
@@ -28544,7 +28552,7 @@
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
     </row>
-    <row r="898" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="15"/>
       <c r="B898" s="15"/>
       <c r="C898" s="54"/>
@@ -28574,7 +28582,7 @@
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
     </row>
-    <row r="899" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="15"/>
       <c r="B899" s="15"/>
       <c r="C899" s="54"/>
@@ -28604,7 +28612,7 @@
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
     </row>
-    <row r="900" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="15"/>
       <c r="B900" s="15"/>
       <c r="C900" s="54"/>
@@ -28634,7 +28642,7 @@
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
     </row>
-    <row r="901" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="15"/>
       <c r="B901" s="15"/>
       <c r="C901" s="54"/>
@@ -28664,7 +28672,7 @@
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
     </row>
-    <row r="902" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="33"/>
       <c r="B902" s="33"/>
       <c r="C902" s="55"/>
@@ -28694,7 +28702,7 @@
       <c r="AA902" s="33"/>
       <c r="AB902" s="33"/>
     </row>
-    <row r="903" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="33"/>
       <c r="B903" s="33"/>
       <c r="C903" s="55"/>
@@ -28724,7 +28732,7 @@
       <c r="AA903" s="33"/>
       <c r="AB903" s="33"/>
     </row>
-    <row r="904" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="33"/>
       <c r="B904" s="33"/>
       <c r="C904" s="55"/>
@@ -28754,7 +28762,7 @@
       <c r="AA904" s="33"/>
       <c r="AB904" s="33"/>
     </row>
-    <row r="905" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="33"/>
       <c r="B905" s="33"/>
       <c r="C905" s="55"/>
@@ -28784,7 +28792,7 @@
       <c r="AA905" s="33"/>
       <c r="AB905" s="33"/>
     </row>
-    <row r="906" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="33"/>
       <c r="B906" s="33"/>
       <c r="C906" s="55"/>
@@ -28814,7 +28822,7 @@
       <c r="AA906" s="33"/>
       <c r="AB906" s="33"/>
     </row>
-    <row r="907" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="33"/>
       <c r="B907" s="33"/>
       <c r="C907" s="55"/>
@@ -28844,7 +28852,7 @@
       <c r="AA907" s="33"/>
       <c r="AB907" s="33"/>
     </row>
-    <row r="908" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="33"/>
       <c r="B908" s="33"/>
       <c r="C908" s="55"/>
@@ -28874,7 +28882,7 @@
       <c r="AA908" s="33"/>
       <c r="AB908" s="33"/>
     </row>
-    <row r="909" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="33"/>
       <c r="B909" s="33"/>
       <c r="C909" s="55"/>
@@ -28904,7 +28912,7 @@
       <c r="AA909" s="33"/>
       <c r="AB909" s="33"/>
     </row>
-    <row r="910" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="33"/>
       <c r="B910" s="33"/>
       <c r="C910" s="55"/>
@@ -28934,7 +28942,7 @@
       <c r="AA910" s="33"/>
       <c r="AB910" s="33"/>
     </row>
-    <row r="911" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="33"/>
       <c r="B911" s="33"/>
       <c r="C911" s="55"/>
@@ -28964,7 +28972,7 @@
       <c r="AA911" s="33"/>
       <c r="AB911" s="33"/>
     </row>
-    <row r="912" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="33"/>
       <c r="B912" s="33"/>
       <c r="C912" s="55"/>
@@ -28994,7 +29002,7 @@
       <c r="AA912" s="33"/>
       <c r="AB912" s="33"/>
     </row>
-    <row r="913" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="33"/>
       <c r="B913" s="33"/>
       <c r="C913" s="55"/>
@@ -29024,7 +29032,7 @@
       <c r="AA913" s="33"/>
       <c r="AB913" s="33"/>
     </row>
-    <row r="914" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="33"/>
       <c r="B914" s="33"/>
       <c r="C914" s="55"/>
@@ -29054,7 +29062,7 @@
       <c r="AA914" s="33"/>
       <c r="AB914" s="33"/>
     </row>
-    <row r="915" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="33"/>
       <c r="B915" s="33"/>
       <c r="C915" s="55"/>
@@ -29084,7 +29092,7 @@
       <c r="AA915" s="33"/>
       <c r="AB915" s="33"/>
     </row>
-    <row r="916" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="33"/>
       <c r="B916" s="33"/>
       <c r="C916" s="55"/>
@@ -29114,7 +29122,7 @@
       <c r="AA916" s="33"/>
       <c r="AB916" s="33"/>
     </row>
-    <row r="917" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="33"/>
       <c r="B917" s="33"/>
       <c r="C917" s="55"/>
@@ -29144,7 +29152,7 @@
       <c r="AA917" s="33"/>
       <c r="AB917" s="33"/>
     </row>
-    <row r="918" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="33"/>
       <c r="B918" s="33"/>
       <c r="C918" s="55"/>
@@ -29174,7 +29182,7 @@
       <c r="AA918" s="33"/>
       <c r="AB918" s="33"/>
     </row>
-    <row r="919" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="33"/>
       <c r="B919" s="33"/>
       <c r="C919" s="55"/>
@@ -29204,7 +29212,7 @@
       <c r="AA919" s="33"/>
       <c r="AB919" s="33"/>
     </row>
-    <row r="920" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="33"/>
       <c r="B920" s="33"/>
       <c r="C920" s="55"/>
@@ -29234,7 +29242,7 @@
       <c r="AA920" s="33"/>
       <c r="AB920" s="33"/>
     </row>
-    <row r="921" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="33"/>
       <c r="B921" s="33"/>
       <c r="C921" s="55"/>
@@ -29264,7 +29272,7 @@
       <c r="AA921" s="33"/>
       <c r="AB921" s="33"/>
     </row>
-    <row r="922" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="33"/>
       <c r="B922" s="33"/>
       <c r="C922" s="55"/>
@@ -29294,7 +29302,7 @@
       <c r="AA922" s="33"/>
       <c r="AB922" s="33"/>
     </row>
-    <row r="923" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="33"/>
       <c r="B923" s="33"/>
       <c r="C923" s="55"/>
@@ -29324,7 +29332,7 @@
       <c r="AA923" s="33"/>
       <c r="AB923" s="33"/>
     </row>
-    <row r="924" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="33"/>
       <c r="B924" s="33"/>
       <c r="C924" s="55"/>
@@ -29354,7 +29362,7 @@
       <c r="AA924" s="33"/>
       <c r="AB924" s="33"/>
     </row>
-    <row r="925" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="33"/>
       <c r="B925" s="33"/>
       <c r="C925" s="55"/>
@@ -29384,7 +29392,7 @@
       <c r="AA925" s="33"/>
       <c r="AB925" s="33"/>
     </row>
-    <row r="926" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="33"/>
       <c r="B926" s="33"/>
       <c r="C926" s="55"/>
@@ -29414,7 +29422,7 @@
       <c r="AA926" s="33"/>
       <c r="AB926" s="33"/>
     </row>
-    <row r="927" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="33"/>
       <c r="B927" s="33"/>
       <c r="C927" s="55"/>
@@ -29506,10 +29514,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:I58 H12:I12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:I58 H12:I12" xr:uid="{74A297AB-336B-4BAB-8F12-52BD7B13B4BD}">
       <formula1>$A$5:$E$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1" xr:uid="{B3CA1814-E4A1-4376-B7A0-1B91E8E84FF4}">
       <formula1>$M$2:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -29519,8 +29527,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
@@ -29529,55 +29537,55 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="19"/>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -29585,26 +29593,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="4" width="43" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
-    <col min="10" max="16" width="23.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" customWidth="1"/>
+    <col min="10" max="16" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
         <v>31</v>
@@ -29652,7 +29660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -29662,7 +29670,7 @@
       </c>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -29671,13 +29679,13 @@
         <v>2. Chọn mua 1 gói data</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="18"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -29686,7 +29694,7 @@
         <v>3. Nhấn nút "Mua ngay"</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -29695,7 +29703,7 @@
         <v>4. Nhập thông tin và địa chỉ</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -29704,7 +29712,7 @@
         <v>5. Chọn thanh toán qua Momo"</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -29713,14 +29721,14 @@
         <v>6. Nhấn nút "Đặt hàng"</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -29785,7 +29793,7 @@
         <v>7. Ngắt kết nối internet</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -29838,7 +29846,7 @@
         <v>8. Xác nhận thanh toán Momo</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -29871,7 +29879,7 @@
         <v>9. Xác nhận thanh toán Momo</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>10</v>
       </c>
@@ -29884,12 +29892,12 @@
         <v>10. Xác nhận thanh toán Momo</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>12</v>
       </c>
